--- a/Plannig CCO.xlsx
+++ b/Plannig CCO.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18720" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18720" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Week 1</t>
   </si>
@@ -63,9 +62,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Bedodigde informatie verzamelen</t>
-  </si>
-  <si>
     <t>Voltooid op dd/mm/jjjj</t>
   </si>
   <si>
@@ -108,9 +104,6 @@
     <t>Database handler</t>
   </si>
   <si>
-    <t>File importer (bv. CVS / XAML)</t>
-  </si>
-  <si>
     <t>Datatables</t>
   </si>
   <si>
@@ -160,13 +153,64 @@
   </si>
   <si>
     <t>Orientatie opdracht</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Stroken diagram</t>
+  </si>
+  <si>
+    <t>Benodigde informatie verzamelen</t>
+  </si>
+  <si>
+    <t>File importer (bv. CSV / XAML)</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Main menu</t>
+  </si>
+  <si>
+    <t>Keuze menu</t>
+  </si>
+  <si>
+    <t>Inlaad menu</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Inzien menu</t>
+  </si>
+  <si>
+    <t>Week 18</t>
+  </si>
+  <si>
+    <t>Week 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +247,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -667,6 +724,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -961,27 +1025,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CK40"/>
+  <dimension ref="A1:GV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="DE7" sqref="DE6:DF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="51" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.42578125" customWidth="1"/>
-    <col min="53" max="64" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="8" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="4.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="15" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="21" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="27" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="33" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="39" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="45" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="51" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="3.42578125" customWidth="1" collapsed="1"/>
+    <col min="53" max="57" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="63" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="69" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="3.7109375" customWidth="1" collapsed="1"/>
+    <col min="71" max="75" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="81" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="87" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="93" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="99" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="112" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="64.5" customHeight="1">
+    <row r="1" spans="1:204" ht="64.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1266,7 @@
         <v>42089</v>
       </c>
       <c r="AZ1" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA1" s="44">
         <f>AY1+3</f>
@@ -1194,7 +1289,7 @@
         <v>42096</v>
       </c>
       <c r="BF1" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BG1" s="51">
         <f>BE1+3</f>
@@ -1217,35 +1312,286 @@
         <v>42103</v>
       </c>
       <c r="BL1" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-    </row>
-    <row r="2" spans="1:89">
+        <v>18</v>
+      </c>
+      <c r="BM1" s="44">
+        <f>BK1+3</f>
+        <v>42106</v>
+      </c>
+      <c r="BN1" s="44">
+        <f>BM1+1</f>
+        <v>42107</v>
+      </c>
+      <c r="BO1" s="44">
+        <f>BN1+1</f>
+        <v>42108</v>
+      </c>
+      <c r="BP1" s="44">
+        <f>BO1+1</f>
+        <v>42109</v>
+      </c>
+      <c r="BQ1" s="44">
+        <f>BP1+1</f>
+        <v>42110</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS1" s="44">
+        <f>BQ1+3</f>
+        <v>42113</v>
+      </c>
+      <c r="BT1" s="44">
+        <f>BS1+1</f>
+        <v>42114</v>
+      </c>
+      <c r="BU1" s="44">
+        <f>BT1+1</f>
+        <v>42115</v>
+      </c>
+      <c r="BV1" s="44">
+        <f>BU1+1</f>
+        <v>42116</v>
+      </c>
+      <c r="BW1" s="44">
+        <f>BV1+1</f>
+        <v>42117</v>
+      </c>
+      <c r="BX1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY1" s="44">
+        <f>BW1+3</f>
+        <v>42120</v>
+      </c>
+      <c r="BZ1" s="44">
+        <f>BY1+1</f>
+        <v>42121</v>
+      </c>
+      <c r="CA1" s="44">
+        <f>BZ1+1</f>
+        <v>42122</v>
+      </c>
+      <c r="CB1" s="44">
+        <f>CA1+1</f>
+        <v>42123</v>
+      </c>
+      <c r="CC1" s="44">
+        <f>CB1+1</f>
+        <v>42124</v>
+      </c>
+      <c r="CD1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="CE1" s="44">
+        <f>CB1+3</f>
+        <v>42126</v>
+      </c>
+      <c r="CF1" s="44">
+        <f>CE1+1</f>
+        <v>42127</v>
+      </c>
+      <c r="CG1" s="44">
+        <f>CF1+1</f>
+        <v>42128</v>
+      </c>
+      <c r="CH1" s="44">
+        <f>CG1+1</f>
+        <v>42129</v>
+      </c>
+      <c r="CI1" s="44">
+        <f>CH1+1</f>
+        <v>42130</v>
+      </c>
+      <c r="CJ1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="CK1" s="44">
+        <f>CH1+3</f>
+        <v>42132</v>
+      </c>
+      <c r="CL1" s="44">
+        <f>CK1+1</f>
+        <v>42133</v>
+      </c>
+      <c r="CM1" s="44">
+        <f>CL1+1</f>
+        <v>42134</v>
+      </c>
+      <c r="CN1" s="44">
+        <f>CM1+1</f>
+        <v>42135</v>
+      </c>
+      <c r="CO1" s="44">
+        <f>CN1+1</f>
+        <v>42136</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ1" s="44">
+        <f>CO1+1</f>
+        <v>42137</v>
+      </c>
+      <c r="CR1" s="44">
+        <f>CQ1+1</f>
+        <v>42138</v>
+      </c>
+      <c r="CS1" s="44">
+        <f>CR1+1</f>
+        <v>42139</v>
+      </c>
+      <c r="CT1" s="44">
+        <f>CS1+1</f>
+        <v>42140</v>
+      </c>
+      <c r="CU1" s="44">
+        <f>CT1+1</f>
+        <v>42141</v>
+      </c>
+      <c r="CV1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW1" s="44">
+        <f>CU1+3</f>
+        <v>42144</v>
+      </c>
+      <c r="CX1" s="44">
+        <f>CW1+1</f>
+        <v>42145</v>
+      </c>
+      <c r="CY1" s="44">
+        <f>CX1+1</f>
+        <v>42146</v>
+      </c>
+      <c r="CZ1" s="44">
+        <f>CY1+1</f>
+        <v>42147</v>
+      </c>
+      <c r="DA1" s="44">
+        <f>CZ1+1</f>
+        <v>42148</v>
+      </c>
+      <c r="DB1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="DC1" s="44">
+        <f>DA1+3</f>
+        <v>42151</v>
+      </c>
+      <c r="DD1" s="44">
+        <f>DC1+1</f>
+        <v>42152</v>
+      </c>
+      <c r="DE1" s="44">
+        <f>DD1+1</f>
+        <v>42153</v>
+      </c>
+      <c r="DF1" s="44">
+        <f>DE1+1</f>
+        <v>42154</v>
+      </c>
+      <c r="DG1" s="44">
+        <f>DF1+1</f>
+        <v>42155</v>
+      </c>
+      <c r="DH1" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+    </row>
+    <row r="2" spans="1:204">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
@@ -1316,8 +1662,20 @@
       <c r="BJ2" s="55"/>
       <c r="BK2" s="55"/>
       <c r="BL2" s="46"/>
-    </row>
-    <row r="3" spans="1:89">
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="CD2" s="46"/>
+      <c r="CJ2" s="46"/>
+      <c r="CP2" s="46"/>
+      <c r="CV2" s="46"/>
+      <c r="DB2" s="46"/>
+    </row>
+    <row r="3" spans="1:204">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -1325,8 +1683,8 @@
         <v>11</v>
       </c>
       <c r="C3" s="26">
-        <f>AM1</f>
-        <v>42077</v>
+        <f>AS1</f>
+        <v>42082</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25"/>
@@ -1336,7 +1694,9 @@
       <c r="I3" s="21"/>
       <c r="J3" s="14"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="22"/>
@@ -1356,15 +1716,22 @@
       <c r="AP3" s="59"/>
       <c r="AQ3" s="59"/>
       <c r="AR3" s="61"/>
-      <c r="AS3" s="59"/>
+      <c r="AS3" s="65"/>
       <c r="AT3" s="14"/>
       <c r="AX3" s="10"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="46"/>
       <c r="BF3" s="46"/>
       <c r="BL3" s="46"/>
-    </row>
-    <row r="4" spans="1:89">
+      <c r="BR3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CJ3" s="46"/>
+      <c r="CP3" s="46"/>
+      <c r="CV3" s="46"/>
+      <c r="DB3" s="46"/>
+    </row>
+    <row r="4" spans="1:204">
       <c r="A4" s="58">
         <v>2</v>
       </c>
@@ -1386,18 +1753,27 @@
       <c r="V4" s="14"/>
       <c r="AB4" s="14"/>
       <c r="AH4" s="14"/>
+      <c r="AM4" s="59"/>
       <c r="AN4" s="14"/>
+      <c r="AO4" s="59"/>
       <c r="AR4" s="59"/>
       <c r="AS4" s="59"/>
       <c r="AT4" s="14"/>
-      <c r="AU4" s="59"/>
+      <c r="AU4" s="66"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="46"/>
       <c r="BF4" s="46"/>
       <c r="BL4" s="46"/>
-    </row>
-    <row r="5" spans="1:89">
+      <c r="BR4" s="46"/>
+      <c r="BX4" s="46"/>
+      <c r="CD4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CP4" s="46"/>
+      <c r="CV4" s="46"/>
+      <c r="DB4" s="46"/>
+    </row>
+    <row r="5" spans="1:204">
       <c r="A5" s="58">
         <v>3</v>
       </c>
@@ -1417,34 +1793,53 @@
       <c r="AZ5" s="46"/>
       <c r="BF5" s="46"/>
       <c r="BL5" s="46"/>
-    </row>
-    <row r="6" spans="1:89">
+      <c r="BR5" s="46"/>
+      <c r="BX5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CJ5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CV5" s="46"/>
+      <c r="DB5" s="46"/>
+    </row>
+    <row r="6" spans="1:204">
       <c r="A6" s="58">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D6" s="14"/>
       <c r="J6" s="14"/>
       <c r="P6" s="14"/>
       <c r="V6" s="14"/>
+      <c r="W6" s="59"/>
       <c r="AB6" s="14"/>
+      <c r="AC6" s="59"/>
       <c r="AH6" s="14"/>
+      <c r="AI6" s="59"/>
       <c r="AN6" s="14"/>
+      <c r="AO6" s="59"/>
       <c r="AT6" s="14"/>
+      <c r="AU6" s="59"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="46"/>
       <c r="BF6" s="46"/>
       <c r="BL6" s="46"/>
-    </row>
-    <row r="7" spans="1:89">
+      <c r="BR6" s="46"/>
+      <c r="BX6" s="46"/>
+      <c r="CD6" s="46"/>
+      <c r="CJ6" s="46"/>
+      <c r="CP6" s="46"/>
+      <c r="CV6" s="46"/>
+      <c r="DB6" s="46"/>
+    </row>
+    <row r="7" spans="1:204">
       <c r="A7" s="58">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14"/>
       <c r="J7" s="14"/>
@@ -1452,20 +1847,32 @@
       <c r="V7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AH7" s="14"/>
+      <c r="AI7" s="68"/>
       <c r="AN7" s="14"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="10"/>
       <c r="AT7" s="14"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="46"/>
       <c r="BF7" s="46"/>
       <c r="BL7" s="46"/>
-    </row>
-    <row r="8" spans="1:89">
+      <c r="BR7" s="46"/>
+      <c r="BX7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CP7" s="46"/>
+      <c r="CV7" s="46"/>
+      <c r="DB7" s="46"/>
+    </row>
+    <row r="8" spans="1:204">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="14"/>
       <c r="J8" s="14"/>
@@ -1481,29 +1888,26 @@
       <c r="AZ8" s="46"/>
       <c r="BF8" s="46"/>
       <c r="BL8" s="46"/>
-    </row>
-    <row r="9" spans="1:89">
-      <c r="A9" s="58">
-        <v>6</v>
+      <c r="BR8" s="46"/>
+      <c r="BX8" s="46"/>
+      <c r="CD8" s="46"/>
+      <c r="CJ8" s="46"/>
+      <c r="CP8" s="46"/>
+      <c r="CV8" s="46"/>
+      <c r="DB8" s="46"/>
+    </row>
+    <row r="9" spans="1:204">
+      <c r="A9" t="s">
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="14"/>
       <c r="J9" s="14"/>
       <c r="P9" s="14"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
       <c r="AH9" s="14"/>
       <c r="AN9" s="14"/>
       <c r="AT9" s="14"/>
@@ -1512,13 +1916,36 @@
       <c r="AZ9" s="46"/>
       <c r="BF9" s="46"/>
       <c r="BL9" s="46"/>
-    </row>
-    <row r="10" spans="1:89">
+      <c r="BR9" s="46"/>
+      <c r="BX9" s="46"/>
+      <c r="CD9" s="46"/>
+      <c r="CJ9" s="46"/>
+      <c r="CP9" s="46"/>
+      <c r="CV9" s="46"/>
+      <c r="DB9" s="46"/>
+    </row>
+    <row r="10" spans="1:204">
+      <c r="A10" s="58">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="J10" s="14"/>
       <c r="P10" s="14"/>
       <c r="V10" s="14"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="14"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
       <c r="AH10" s="14"/>
       <c r="AN10" s="14"/>
       <c r="AT10" s="14"/>
@@ -1527,8 +1954,15 @@
       <c r="AZ10" s="46"/>
       <c r="BF10" s="46"/>
       <c r="BL10" s="46"/>
-    </row>
-    <row r="11" spans="1:89">
+      <c r="BR10" s="46"/>
+      <c r="BX10" s="46"/>
+      <c r="CD10" s="46"/>
+      <c r="CJ10" s="46"/>
+      <c r="CP10" s="46"/>
+      <c r="CV10" s="46"/>
+      <c r="DB10" s="46"/>
+    </row>
+    <row r="11" spans="1:204">
       <c r="A11" s="38"/>
       <c r="B11" s="36"/>
       <c r="C11" s="41"/>
@@ -1545,8 +1979,15 @@
       <c r="AZ11" s="46"/>
       <c r="BF11" s="46"/>
       <c r="BL11" s="46"/>
-    </row>
-    <row r="12" spans="1:89">
+      <c r="BR11" s="46"/>
+      <c r="BX11" s="46"/>
+      <c r="CD11" s="46"/>
+      <c r="CJ11" s="46"/>
+      <c r="CP11" s="46"/>
+      <c r="CV11" s="46"/>
+      <c r="DB11" s="46"/>
+    </row>
+    <row r="12" spans="1:204">
       <c r="A12" s="39"/>
       <c r="B12" s="37"/>
       <c r="C12" s="42"/>
@@ -1600,8 +2041,15 @@
       <c r="AZ12" s="47"/>
       <c r="BF12" s="46"/>
       <c r="BL12" s="46"/>
-    </row>
-    <row r="13" spans="1:89">
+      <c r="BR12" s="46"/>
+      <c r="BX12" s="46"/>
+      <c r="CD12" s="46"/>
+      <c r="CJ12" s="46"/>
+      <c r="CP12" s="46"/>
+      <c r="CV12" s="46"/>
+      <c r="DB12" s="46"/>
+    </row>
+    <row r="13" spans="1:204">
       <c r="A13" s="40"/>
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
@@ -1655,8 +2103,15 @@
       <c r="AZ13" s="47"/>
       <c r="BF13" s="46"/>
       <c r="BL13" s="46"/>
-    </row>
-    <row r="14" spans="1:89">
+      <c r="BR13" s="46"/>
+      <c r="BX13" s="46"/>
+      <c r="CD13" s="46"/>
+      <c r="CJ13" s="46"/>
+      <c r="CP13" s="46"/>
+      <c r="CV13" s="46"/>
+      <c r="DB13" s="46"/>
+    </row>
+    <row r="14" spans="1:204">
       <c r="A14" s="50"/>
       <c r="B14" s="37"/>
       <c r="C14" s="43"/>
@@ -1710,16 +2165,23 @@
       <c r="AZ14" s="47"/>
       <c r="BF14" s="46"/>
       <c r="BL14" s="46"/>
-    </row>
-    <row r="15" spans="1:89">
+      <c r="BR14" s="46"/>
+      <c r="BX14" s="46"/>
+      <c r="CD14" s="46"/>
+      <c r="CJ14" s="46"/>
+      <c r="CP14" s="46"/>
+      <c r="CV14" s="46"/>
+      <c r="DB14" s="46"/>
+    </row>
+    <row r="15" spans="1:204">
       <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="33"/>
@@ -1784,20 +2246,30 @@
       <c r="BJ15" s="55"/>
       <c r="BK15" s="56"/>
       <c r="BL15" s="46"/>
-    </row>
-    <row r="16" spans="1:89">
+      <c r="BM15" s="54"/>
+      <c r="BN15" s="55"/>
+      <c r="BO15" s="55"/>
+      <c r="BP15" s="55"/>
+      <c r="BQ15" s="56"/>
+      <c r="BR15" s="46"/>
+      <c r="BX15" s="46"/>
+      <c r="CD15" s="46"/>
+      <c r="CJ15" s="46"/>
+      <c r="CP15" s="46"/>
+      <c r="CV15" s="46"/>
+      <c r="DB15" s="46"/>
+    </row>
+    <row r="16" spans="1:204">
       <c r="A16" s="58">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="14"/>
       <c r="J16" s="14"/>
       <c r="P16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
       <c r="AB16" s="14"/>
       <c r="AH16" s="14"/>
       <c r="AN16" s="14"/>
@@ -1807,13 +2279,20 @@
       <c r="AZ16" s="46"/>
       <c r="BF16" s="46"/>
       <c r="BL16" s="46"/>
-    </row>
-    <row r="17" spans="1:64">
+      <c r="BR16" s="46"/>
+      <c r="BX16" s="46"/>
+      <c r="CD16" s="46"/>
+      <c r="CJ16" s="46"/>
+      <c r="CP16" s="46"/>
+      <c r="CV16" s="46"/>
+      <c r="DB16" s="46"/>
+    </row>
+    <row r="17" spans="1:106">
       <c r="A17" s="58">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="14"/>
       <c r="J17" s="14"/>
@@ -1830,34 +2309,49 @@
       <c r="AZ17" s="46"/>
       <c r="BF17" s="46"/>
       <c r="BL17" s="46"/>
-    </row>
-    <row r="18" spans="1:64">
-      <c r="A18" s="58">
-        <v>3</v>
+      <c r="BR17" s="46"/>
+      <c r="BX17" s="46"/>
+      <c r="CD17" s="46"/>
+      <c r="CJ17" s="46"/>
+      <c r="CP17" s="46"/>
+      <c r="CV17" s="46"/>
+      <c r="DB17" s="46"/>
+    </row>
+    <row r="18" spans="1:106">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D18" s="14"/>
       <c r="J18" s="14"/>
       <c r="P18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="59"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="59"/>
       <c r="AH18" s="14"/>
-      <c r="AI18" s="59"/>
       <c r="AN18" s="14"/>
-      <c r="AO18" s="59"/>
       <c r="AT18" s="14"/>
-      <c r="AU18" s="59"/>
       <c r="AX18" s="10"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BL18" s="46"/>
-    </row>
-    <row r="19" spans="1:64">
+      <c r="BR18" s="46"/>
+      <c r="BX18" s="46"/>
+      <c r="CD18" s="46"/>
+      <c r="CJ18" s="46"/>
+      <c r="CP18" s="46"/>
+      <c r="CV18" s="46"/>
+      <c r="DB18" s="46"/>
+    </row>
+    <row r="19" spans="1:106">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="J19" s="14"/>
       <c r="P19" s="14"/>
@@ -1871,8 +2365,21 @@
       <c r="AZ19" s="46"/>
       <c r="BF19" s="46"/>
       <c r="BL19" s="46"/>
-    </row>
-    <row r="20" spans="1:64">
+      <c r="BR19" s="46"/>
+      <c r="BX19" s="46"/>
+      <c r="CD19" s="46"/>
+      <c r="CJ19" s="46"/>
+      <c r="CP19" s="46"/>
+      <c r="CV19" s="46"/>
+      <c r="DB19" s="46"/>
+    </row>
+    <row r="20" spans="1:106">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="J20" s="14"/>
       <c r="P20" s="14"/>
@@ -1886,8 +2393,21 @@
       <c r="AZ20" s="46"/>
       <c r="BF20" s="46"/>
       <c r="BL20" s="46"/>
-    </row>
-    <row r="21" spans="1:64">
+      <c r="BR20" s="46"/>
+      <c r="BX20" s="46"/>
+      <c r="CD20" s="46"/>
+      <c r="CJ20" s="46"/>
+      <c r="CP20" s="46"/>
+      <c r="CV20" s="46"/>
+      <c r="DB20" s="46"/>
+    </row>
+    <row r="21" spans="1:106">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="J21" s="14"/>
       <c r="P21" s="14"/>
@@ -1901,23 +2421,49 @@
       <c r="AZ21" s="46"/>
       <c r="BF21" s="46"/>
       <c r="BL21" s="46"/>
-    </row>
-    <row r="22" spans="1:64">
+      <c r="BR21" s="46"/>
+      <c r="BX21" s="46"/>
+      <c r="CD21" s="46"/>
+      <c r="CJ21" s="46"/>
+      <c r="CP21" s="46"/>
+      <c r="CV21" s="46"/>
+      <c r="DB21" s="46"/>
+    </row>
+    <row r="22" spans="1:106">
+      <c r="A22" s="58">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="J22" s="14"/>
       <c r="P22" s="14"/>
       <c r="V22" s="14"/>
+      <c r="W22" s="59"/>
       <c r="AB22" s="14"/>
+      <c r="AC22" s="59"/>
       <c r="AH22" s="14"/>
+      <c r="AI22" s="59"/>
       <c r="AN22" s="14"/>
+      <c r="AO22" s="59"/>
       <c r="AT22" s="14"/>
+      <c r="AU22" s="59"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="46"/>
+      <c r="BA22" s="59"/>
       <c r="BF22" s="46"/>
       <c r="BL22" s="46"/>
-    </row>
-    <row r="23" spans="1:64">
+      <c r="BR22" s="46"/>
+      <c r="BX22" s="46"/>
+      <c r="CD22" s="46"/>
+      <c r="CJ22" s="46"/>
+      <c r="CP22" s="46"/>
+      <c r="CV22" s="46"/>
+      <c r="DB22" s="46"/>
+    </row>
+    <row r="23" spans="1:106">
       <c r="D23" s="14"/>
       <c r="J23" s="14"/>
       <c r="P23" s="14"/>
@@ -1931,16 +2477,23 @@
       <c r="AZ23" s="46"/>
       <c r="BF23" s="46"/>
       <c r="BL23" s="46"/>
-    </row>
-    <row r="24" spans="1:64">
+      <c r="BR23" s="46"/>
+      <c r="BX23" s="46"/>
+      <c r="CD23" s="46"/>
+      <c r="CJ23" s="46"/>
+      <c r="CP23" s="46"/>
+      <c r="CV23" s="46"/>
+      <c r="DB23" s="46"/>
+    </row>
+    <row r="24" spans="1:106">
       <c r="A24" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="57"/>
@@ -2003,13 +2556,29 @@
       <c r="BJ24" s="55"/>
       <c r="BK24" s="56"/>
       <c r="BL24" s="46"/>
-    </row>
-    <row r="25" spans="1:64">
+      <c r="BM24" s="54"/>
+      <c r="BN24" s="55"/>
+      <c r="BO24" s="55"/>
+      <c r="BP24" s="55"/>
+      <c r="BQ24" s="56"/>
+      <c r="BR24" s="46"/>
+      <c r="BX24" s="46"/>
+      <c r="CD24" s="46"/>
+      <c r="CJ24" s="46"/>
+      <c r="CP24" s="46"/>
+      <c r="CV24" s="46"/>
+      <c r="DB24" s="46"/>
+    </row>
+    <row r="25" spans="1:106">
       <c r="A25" s="58">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="26">
+        <f>AF1</f>
+        <v>42069</v>
       </c>
       <c r="D25" s="14"/>
       <c r="J25" s="14"/>
@@ -2024,7 +2593,7 @@
       <c r="AC25" s="53"/>
       <c r="AD25" s="59"/>
       <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
+      <c r="AF25" s="66"/>
       <c r="AH25" s="14"/>
       <c r="AN25" s="14"/>
       <c r="AT25" s="14"/>
@@ -2033,13 +2602,24 @@
       <c r="AZ25" s="46"/>
       <c r="BF25" s="46"/>
       <c r="BL25" s="46"/>
-    </row>
-    <row r="26" spans="1:64">
+      <c r="BR25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="CD25" s="46"/>
+      <c r="CJ25" s="46"/>
+      <c r="CP25" s="46"/>
+      <c r="CV25" s="46"/>
+      <c r="DB25" s="46"/>
+    </row>
+    <row r="26" spans="1:106">
       <c r="A26" s="58">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="26">
+        <f>AE1</f>
+        <v>42068</v>
       </c>
       <c r="D26" s="14"/>
       <c r="J26" s="14"/>
@@ -2053,7 +2633,7 @@
       <c r="AB26" s="14"/>
       <c r="AC26" s="59"/>
       <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
+      <c r="AE26" s="67"/>
       <c r="AH26" s="14"/>
       <c r="AN26" s="14"/>
       <c r="AT26" s="14"/>
@@ -2062,13 +2642,24 @@
       <c r="AZ26" s="46"/>
       <c r="BF26" s="46"/>
       <c r="BL26" s="46"/>
-    </row>
-    <row r="27" spans="1:64">
+      <c r="BR26" s="46"/>
+      <c r="BX26" s="46"/>
+      <c r="CD26" s="46"/>
+      <c r="CJ26" s="46"/>
+      <c r="CP26" s="46"/>
+      <c r="CV26" s="46"/>
+      <c r="DB26" s="46"/>
+    </row>
+    <row r="27" spans="1:106">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="26">
+        <f>AD1</f>
+        <v>42067</v>
       </c>
       <c r="D27" s="14"/>
       <c r="J27" s="14"/>
@@ -2081,7 +2672,7 @@
       <c r="AA27" s="59"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
+      <c r="AD27" s="66"/>
       <c r="AH27" s="14"/>
       <c r="AN27" s="14"/>
       <c r="AT27" s="14"/>
@@ -2090,13 +2681,24 @@
       <c r="AZ27" s="46"/>
       <c r="BF27" s="46"/>
       <c r="BL27" s="46"/>
-    </row>
-    <row r="28" spans="1:64">
+      <c r="BR27" s="46"/>
+      <c r="BX27" s="46"/>
+      <c r="CD27" s="46"/>
+      <c r="CJ27" s="46"/>
+      <c r="CP27" s="46"/>
+      <c r="CV27" s="46"/>
+      <c r="DB27" s="46"/>
+    </row>
+    <row r="28" spans="1:106">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="26">
+        <f>AC1</f>
+        <v>42066</v>
       </c>
       <c r="D28" s="14"/>
       <c r="J28" s="14"/>
@@ -2108,7 +2710,7 @@
       <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="66"/>
       <c r="AH28" s="14"/>
       <c r="AN28" s="14"/>
       <c r="AT28" s="14"/>
@@ -2117,27 +2719,36 @@
       <c r="AZ28" s="46"/>
       <c r="BF28" s="46"/>
       <c r="BL28" s="46"/>
-    </row>
-    <row r="29" spans="1:64">
+      <c r="BR28" s="46"/>
+      <c r="BX28" s="46"/>
+      <c r="CD28" s="46"/>
+      <c r="CJ28" s="46"/>
+      <c r="CP28" s="46"/>
+      <c r="CV28" s="46"/>
+      <c r="DB28" s="46"/>
+    </row>
+    <row r="29" spans="1:106">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="26">
+        <f>AE1</f>
+        <v>42068</v>
       </c>
       <c r="D29" s="14"/>
       <c r="J29" s="14"/>
       <c r="P29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="59"/>
       <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
+      <c r="AE29" s="66"/>
       <c r="AH29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AT29" s="14"/>
@@ -2146,13 +2757,20 @@
       <c r="AZ29" s="46"/>
       <c r="BF29" s="46"/>
       <c r="BL29" s="46"/>
-    </row>
-    <row r="30" spans="1:64">
+      <c r="BR29" s="46"/>
+      <c r="BX29" s="46"/>
+      <c r="CD29" s="46"/>
+      <c r="CJ29" s="46"/>
+      <c r="CP29" s="46"/>
+      <c r="CV29" s="46"/>
+      <c r="DB29" s="46"/>
+    </row>
+    <row r="30" spans="1:106">
       <c r="A30" s="58">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D30" s="14"/>
       <c r="J30" s="14"/>
@@ -2167,13 +2785,20 @@
       <c r="AZ30" s="46"/>
       <c r="BF30" s="46"/>
       <c r="BL30" s="46"/>
-    </row>
-    <row r="31" spans="1:64">
+      <c r="BR30" s="46"/>
+      <c r="BX30" s="46"/>
+      <c r="CD30" s="46"/>
+      <c r="CJ30" s="46"/>
+      <c r="CP30" s="46"/>
+      <c r="CV30" s="46"/>
+      <c r="DB30" s="46"/>
+    </row>
+    <row r="31" spans="1:106">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="14"/>
       <c r="J31" s="14"/>
@@ -2188,13 +2813,20 @@
       <c r="AZ31" s="46"/>
       <c r="BF31" s="46"/>
       <c r="BL31" s="46"/>
-    </row>
-    <row r="32" spans="1:64">
+      <c r="BR31" s="46"/>
+      <c r="BX31" s="46"/>
+      <c r="CD31" s="46"/>
+      <c r="CJ31" s="46"/>
+      <c r="CP31" s="46"/>
+      <c r="CV31" s="46"/>
+      <c r="DB31" s="46"/>
+    </row>
+    <row r="32" spans="1:106">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="14"/>
       <c r="J32" s="14"/>
@@ -2209,13 +2841,24 @@
       <c r="AZ32" s="46"/>
       <c r="BF32" s="46"/>
       <c r="BL32" s="46"/>
-    </row>
-    <row r="33" spans="1:64">
+      <c r="BR32" s="46"/>
+      <c r="BX32" s="46"/>
+      <c r="CD32" s="46"/>
+      <c r="CJ32" s="46"/>
+      <c r="CP32" s="46"/>
+      <c r="CV32" s="46"/>
+      <c r="DB32" s="46"/>
+    </row>
+    <row r="33" spans="1:106">
       <c r="A33" s="58">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C33" s="26">
+        <f>AG1</f>
+        <v>42070</v>
       </c>
       <c r="D33" s="14"/>
       <c r="J33" s="14"/>
@@ -2226,7 +2869,7 @@
       <c r="AD33" s="59"/>
       <c r="AE33" s="59"/>
       <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
+      <c r="AG33" s="66"/>
       <c r="AH33" s="14"/>
       <c r="AN33" s="14"/>
       <c r="AT33" s="14"/>
@@ -2235,13 +2878,24 @@
       <c r="AZ33" s="46"/>
       <c r="BF33" s="46"/>
       <c r="BL33" s="46"/>
-    </row>
-    <row r="34" spans="1:64">
+      <c r="BR33" s="46"/>
+      <c r="BX33" s="46"/>
+      <c r="CD33" s="46"/>
+      <c r="CJ33" s="46"/>
+      <c r="CP33" s="46"/>
+      <c r="CV33" s="46"/>
+      <c r="DB33" s="46"/>
+    </row>
+    <row r="34" spans="1:106">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="26">
+        <f>AE1</f>
+        <v>42068</v>
       </c>
       <c r="D34" s="14"/>
       <c r="J34" s="14"/>
@@ -2250,7 +2904,7 @@
       <c r="AB34" s="14"/>
       <c r="AC34" s="59"/>
       <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
+      <c r="AE34" s="66"/>
       <c r="AH34" s="2"/>
       <c r="AN34" s="14"/>
       <c r="AT34" s="14"/>
@@ -2259,13 +2913,24 @@
       <c r="AZ34" s="46"/>
       <c r="BF34" s="46"/>
       <c r="BL34" s="46"/>
-    </row>
-    <row r="35" spans="1:64">
+      <c r="BR34" s="46"/>
+      <c r="BX34" s="46"/>
+      <c r="CD34" s="46"/>
+      <c r="CJ34" s="46"/>
+      <c r="CP34" s="46"/>
+      <c r="CV34" s="46"/>
+      <c r="DB34" s="46"/>
+    </row>
+    <row r="35" spans="1:106">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C35" s="26">
+        <f>AE1</f>
+        <v>42068</v>
       </c>
       <c r="D35" s="14"/>
       <c r="J35" s="14"/>
@@ -2274,7 +2939,7 @@
       <c r="AB35" s="14"/>
       <c r="AC35" s="59"/>
       <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
+      <c r="AE35" s="66"/>
       <c r="AH35" s="2"/>
       <c r="AN35" s="14"/>
       <c r="AT35" s="14"/>
@@ -2283,13 +2948,20 @@
       <c r="AZ35" s="46"/>
       <c r="BF35" s="46"/>
       <c r="BL35" s="46"/>
-    </row>
-    <row r="36" spans="1:64">
+      <c r="BR35" s="46"/>
+      <c r="BX35" s="46"/>
+      <c r="CD35" s="46"/>
+      <c r="CJ35" s="46"/>
+      <c r="CP35" s="46"/>
+      <c r="CV35" s="46"/>
+      <c r="DB35" s="46"/>
+    </row>
+    <row r="36" spans="1:106">
       <c r="A36" s="58">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" s="14"/>
       <c r="J36" s="14"/>
@@ -2319,13 +2991,22 @@
       <c r="AR36" s="59"/>
       <c r="AS36" s="59"/>
       <c r="AT36" s="14"/>
+      <c r="AU36" s="59"/>
+      <c r="AV36" s="59"/>
       <c r="AX36" s="10"/>
       <c r="AY36" s="4"/>
       <c r="AZ36" s="46"/>
       <c r="BF36" s="46"/>
       <c r="BL36" s="46"/>
-    </row>
-    <row r="37" spans="1:64">
+      <c r="BR36" s="46"/>
+      <c r="BX36" s="46"/>
+      <c r="CD36" s="46"/>
+      <c r="CJ36" s="46"/>
+      <c r="CP36" s="46"/>
+      <c r="CV36" s="46"/>
+      <c r="DB36" s="46"/>
+    </row>
+    <row r="37" spans="1:106">
       <c r="D37" s="14"/>
       <c r="J37" s="14"/>
       <c r="P37" s="14"/>
@@ -2339,8 +3020,15 @@
       <c r="AZ37" s="46"/>
       <c r="BF37" s="46"/>
       <c r="BL37" s="46"/>
-    </row>
-    <row r="38" spans="1:64">
+      <c r="BR37" s="46"/>
+      <c r="BX37" s="46"/>
+      <c r="CD37" s="46"/>
+      <c r="CJ37" s="46"/>
+      <c r="CP37" s="46"/>
+      <c r="CV37" s="46"/>
+      <c r="DB37" s="46"/>
+    </row>
+    <row r="38" spans="1:106">
       <c r="D38" s="14"/>
       <c r="J38" s="14"/>
       <c r="P38" s="14"/>
@@ -2354,8 +3042,15 @@
       <c r="AZ38" s="46"/>
       <c r="BF38" s="46"/>
       <c r="BL38" s="46"/>
-    </row>
-    <row r="39" spans="1:64">
+      <c r="BR38" s="46"/>
+      <c r="BX38" s="46"/>
+      <c r="CD38" s="46"/>
+      <c r="CJ38" s="46"/>
+      <c r="CP38" s="46"/>
+      <c r="CV38" s="46"/>
+      <c r="DB38" s="46"/>
+    </row>
+    <row r="39" spans="1:106">
       <c r="D39" s="14"/>
       <c r="J39" s="14"/>
       <c r="P39" s="14"/>
@@ -2369,8 +3064,15 @@
       <c r="AZ39" s="46"/>
       <c r="BF39" s="46"/>
       <c r="BL39" s="46"/>
-    </row>
-    <row r="40" spans="1:64">
+      <c r="BR39" s="46"/>
+      <c r="BX39" s="46"/>
+      <c r="CD39" s="46"/>
+      <c r="CJ39" s="46"/>
+      <c r="CP39" s="46"/>
+      <c r="CV39" s="46"/>
+      <c r="DB39" s="46"/>
+    </row>
+    <row r="40" spans="1:106">
       <c r="D40" s="15"/>
       <c r="J40" s="15"/>
       <c r="P40" s="15"/>
@@ -2384,6 +3086,13 @@
       <c r="AZ40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BL40" s="48"/>
+      <c r="BR40" s="48"/>
+      <c r="BX40" s="48"/>
+      <c r="CD40" s="48"/>
+      <c r="CJ40" s="48"/>
+      <c r="CP40" s="48"/>
+      <c r="CV40" s="48"/>
+      <c r="DB40" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plannig CCO.xlsx
+++ b/Plannig CCO.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Blad2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Week 1</t>
   </si>
@@ -204,6 +205,45 @@
   </si>
   <si>
     <t>Week 20</t>
+  </si>
+  <si>
+    <t>Document Eisen/wensen bijhouden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan van aanpak </t>
+  </si>
+  <si>
+    <t>Afspraken maken</t>
+  </si>
+  <si>
+    <t>Database verbinden</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Toegang to beide databases maken</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Locale tussen database opstellen</t>
+  </si>
+  <si>
+    <t>Planning opstellen</t>
+  </si>
+  <si>
+    <t>Benodigde programmas verzamelen</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Visual studio</t>
+  </si>
+  <si>
+    <t>Complete progamma samenstellen</t>
   </si>
 </sst>
 </file>
@@ -619,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -724,9 +764,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1025,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GV40"/>
+  <dimension ref="A1:GV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DE7" sqref="DE6:DF7"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1048,32 +1085,36 @@
     <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="21" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="27" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="33" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="39" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="45" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="51" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="3.42578125" customWidth="1" collapsed="1"/>
-    <col min="53" max="57" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="63" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="3.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="69" width="3.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="3.7109375" customWidth="1" collapsed="1"/>
-    <col min="71" max="75" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="81" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="82" max="82" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="87" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="93" width="4.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="27" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="3.42578125" customWidth="1"/>
+    <col min="53" max="57" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="63" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="69" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="3.7109375" customWidth="1"/>
+    <col min="71" max="75" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="81" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="87" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="93" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="95" max="99" width="4.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="112" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="105" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="106" max="106" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="111" width="4.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="123" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:204" ht="64.5" customHeight="1">
@@ -1086,429 +1127,444 @@
         <v>0</v>
       </c>
       <c r="E1" s="7">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="F1" s="7">
         <f>E1+1</f>
-        <v>42039</v>
+        <v>42046</v>
       </c>
       <c r="G1" s="7">
         <f>F1+1</f>
-        <v>42040</v>
+        <v>42047</v>
       </c>
       <c r="H1" s="7">
         <f>G1+1</f>
-        <v>42041</v>
+        <v>42048</v>
       </c>
       <c r="I1" s="7">
         <f>H1+1</f>
-        <v>42042</v>
+        <v>42049</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="7">
         <f>I1+3</f>
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="L1" s="7">
         <f>K1+1</f>
-        <v>42046</v>
+        <v>42053</v>
       </c>
       <c r="M1" s="7">
         <f>L1+1</f>
-        <v>42047</v>
+        <v>42054</v>
       </c>
       <c r="N1" s="7">
         <f>M1+1</f>
-        <v>42048</v>
+        <v>42055</v>
       </c>
       <c r="O1" s="7">
         <f>N1+1</f>
-        <v>42049</v>
+        <v>42056</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="7">
         <f>O1+3</f>
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="R1" s="7">
         <f>Q1+1</f>
-        <v>42053</v>
+        <v>42060</v>
       </c>
       <c r="S1" s="7">
         <f>R1+1</f>
-        <v>42054</v>
+        <v>42061</v>
       </c>
       <c r="T1" s="7">
         <f>S1+1</f>
-        <v>42055</v>
+        <v>42062</v>
       </c>
       <c r="U1" s="7">
         <f>T1+1</f>
-        <v>42056</v>
+        <v>42063</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="7">
         <f>U1+3</f>
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="X1" s="7">
         <f>W1+1</f>
-        <v>42060</v>
+        <v>42067</v>
       </c>
       <c r="Y1" s="7">
         <f>X1+1</f>
-        <v>42061</v>
+        <v>42068</v>
       </c>
       <c r="Z1" s="7">
         <f>Y1+1</f>
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="AA1" s="7">
         <f>Z1+1</f>
-        <v>42063</v>
+        <v>42070</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AC1" s="7">
         <f>AA1+3</f>
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="AD1" s="7">
         <f>AC1+1</f>
-        <v>42067</v>
+        <v>42074</v>
       </c>
       <c r="AE1" s="7">
         <f>AD1+1</f>
-        <v>42068</v>
+        <v>42075</v>
       </c>
       <c r="AF1" s="7">
         <f>AE1+1</f>
-        <v>42069</v>
+        <v>42076</v>
       </c>
       <c r="AG1" s="7">
         <f>AF1+1</f>
-        <v>42070</v>
+        <v>42077</v>
       </c>
       <c r="AH1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AI1" s="7">
         <f>AG1+3</f>
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="AJ1" s="7">
         <f>AI1+1</f>
-        <v>42074</v>
+        <v>42081</v>
       </c>
       <c r="AK1" s="7">
         <f>AJ1+1</f>
-        <v>42075</v>
+        <v>42082</v>
       </c>
       <c r="AL1" s="7">
         <f>AK1+1</f>
-        <v>42076</v>
+        <v>42083</v>
       </c>
       <c r="AM1" s="7">
         <f>AL1+1</f>
-        <v>42077</v>
+        <v>42084</v>
       </c>
       <c r="AN1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="AO1" s="7">
         <f>AM1+1</f>
-        <v>42078</v>
+        <v>42085</v>
       </c>
       <c r="AP1" s="7">
         <f>AO1+1</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="AQ1" s="7">
         <f>AP1+1</f>
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="AR1" s="7">
         <f>AQ1+1</f>
-        <v>42081</v>
+        <v>42088</v>
       </c>
       <c r="AS1" s="7">
         <f>AR1+1</f>
-        <v>42082</v>
+        <v>42089</v>
       </c>
       <c r="AT1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="AU1" s="7">
         <f>AS1+3</f>
-        <v>42085</v>
+        <v>42092</v>
       </c>
       <c r="AV1" s="7">
         <f>AU1+1</f>
-        <v>42086</v>
+        <v>42093</v>
       </c>
       <c r="AW1" s="7">
         <f>AV1+1</f>
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="AX1" s="7">
         <f>AW1+1</f>
-        <v>42088</v>
+        <v>42095</v>
       </c>
       <c r="AY1" s="7">
         <f>AX1+1</f>
-        <v>42089</v>
+        <v>42096</v>
       </c>
       <c r="AZ1" s="45" t="s">
         <v>16</v>
       </c>
       <c r="BA1" s="44">
         <f>AY1+3</f>
-        <v>42092</v>
+        <v>42099</v>
       </c>
       <c r="BB1" s="44">
         <f>BA1+1</f>
-        <v>42093</v>
+        <v>42100</v>
       </c>
       <c r="BC1" s="44">
         <f>BB1+1</f>
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="BD1" s="44">
         <f>BC1+1</f>
-        <v>42095</v>
+        <v>42102</v>
       </c>
       <c r="BE1" s="44">
         <f>BD1+1</f>
-        <v>42096</v>
+        <v>42103</v>
       </c>
       <c r="BF1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="BG1" s="51">
         <f>BE1+3</f>
-        <v>42099</v>
+        <v>42106</v>
       </c>
       <c r="BH1" s="52">
         <f>BG1+1</f>
-        <v>42100</v>
+        <v>42107</v>
       </c>
       <c r="BI1" s="52">
         <f>BH1+1</f>
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="BJ1" s="52">
         <f>BI1+1</f>
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="BK1" s="52">
         <f>BJ1+1</f>
-        <v>42103</v>
+        <v>42110</v>
       </c>
       <c r="BL1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="BM1" s="44">
         <f>BK1+3</f>
-        <v>42106</v>
+        <v>42113</v>
       </c>
       <c r="BN1" s="44">
         <f>BM1+1</f>
-        <v>42107</v>
+        <v>42114</v>
       </c>
       <c r="BO1" s="44">
         <f>BN1+1</f>
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="BP1" s="44">
         <f>BO1+1</f>
-        <v>42109</v>
+        <v>42116</v>
       </c>
       <c r="BQ1" s="44">
         <f>BP1+1</f>
-        <v>42110</v>
+        <v>42117</v>
       </c>
       <c r="BR1" s="49" t="s">
         <v>46</v>
       </c>
       <c r="BS1" s="44">
         <f>BQ1+3</f>
-        <v>42113</v>
+        <v>42120</v>
       </c>
       <c r="BT1" s="44">
         <f>BS1+1</f>
-        <v>42114</v>
+        <v>42121</v>
       </c>
       <c r="BU1" s="44">
         <f>BT1+1</f>
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="BV1" s="44">
         <f>BU1+1</f>
-        <v>42116</v>
+        <v>42123</v>
       </c>
       <c r="BW1" s="44">
         <f>BV1+1</f>
-        <v>42117</v>
+        <v>42124</v>
       </c>
       <c r="BX1" s="45" t="s">
         <v>51</v>
       </c>
       <c r="BY1" s="44">
         <f>BW1+3</f>
-        <v>42120</v>
+        <v>42127</v>
       </c>
       <c r="BZ1" s="44">
         <f>BY1+1</f>
-        <v>42121</v>
+        <v>42128</v>
       </c>
       <c r="CA1" s="44">
         <f>BZ1+1</f>
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="CB1" s="44">
         <f>CA1+1</f>
-        <v>42123</v>
+        <v>42130</v>
       </c>
       <c r="CC1" s="44">
         <f>CB1+1</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="CD1" s="45" t="s">
         <v>52</v>
       </c>
       <c r="CE1" s="44">
         <f>CB1+3</f>
-        <v>42126</v>
+        <v>42133</v>
       </c>
       <c r="CF1" s="44">
         <f>CE1+1</f>
-        <v>42127</v>
+        <v>42134</v>
       </c>
       <c r="CG1" s="44">
         <f>CF1+1</f>
-        <v>42128</v>
+        <v>42135</v>
       </c>
       <c r="CH1" s="44">
         <f>CG1+1</f>
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="CI1" s="44">
         <f>CH1+1</f>
-        <v>42130</v>
+        <v>42137</v>
       </c>
       <c r="CJ1" s="45" t="s">
         <v>53</v>
       </c>
       <c r="CK1" s="44">
         <f>CH1+3</f>
-        <v>42132</v>
+        <v>42139</v>
       </c>
       <c r="CL1" s="44">
         <f>CK1+1</f>
-        <v>42133</v>
+        <v>42140</v>
       </c>
       <c r="CM1" s="44">
         <f>CL1+1</f>
-        <v>42134</v>
+        <v>42141</v>
       </c>
       <c r="CN1" s="44">
         <f>CM1+1</f>
-        <v>42135</v>
+        <v>42142</v>
       </c>
       <c r="CO1" s="44">
         <f>CN1+1</f>
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="CP1" s="45" t="s">
         <v>54</v>
       </c>
       <c r="CQ1" s="44">
         <f>CO1+1</f>
-        <v>42137</v>
+        <v>42144</v>
       </c>
       <c r="CR1" s="44">
         <f>CQ1+1</f>
-        <v>42138</v>
+        <v>42145</v>
       </c>
       <c r="CS1" s="44">
         <f>CR1+1</f>
-        <v>42139</v>
+        <v>42146</v>
       </c>
       <c r="CT1" s="44">
         <f>CS1+1</f>
-        <v>42140</v>
+        <v>42147</v>
       </c>
       <c r="CU1" s="44">
         <f>CT1+1</f>
-        <v>42141</v>
+        <v>42148</v>
       </c>
       <c r="CV1" s="45" t="s">
         <v>55</v>
       </c>
       <c r="CW1" s="44">
         <f>CU1+3</f>
-        <v>42144</v>
+        <v>42151</v>
       </c>
       <c r="CX1" s="44">
         <f>CW1+1</f>
-        <v>42145</v>
+        <v>42152</v>
       </c>
       <c r="CY1" s="44">
         <f>CX1+1</f>
-        <v>42146</v>
+        <v>42153</v>
       </c>
       <c r="CZ1" s="44">
         <f>CY1+1</f>
-        <v>42147</v>
+        <v>42154</v>
       </c>
       <c r="DA1" s="44">
         <f>CZ1+1</f>
-        <v>42148</v>
+        <v>42155</v>
       </c>
       <c r="DB1" s="45" t="s">
         <v>61</v>
       </c>
       <c r="DC1" s="44">
         <f>DA1+3</f>
-        <v>42151</v>
+        <v>42158</v>
       </c>
       <c r="DD1" s="44">
         <f>DC1+1</f>
-        <v>42152</v>
+        <v>42159</v>
       </c>
       <c r="DE1" s="44">
         <f>DD1+1</f>
-        <v>42153</v>
+        <v>42160</v>
       </c>
       <c r="DF1" s="44">
         <f>DE1+1</f>
-        <v>42154</v>
+        <v>42161</v>
       </c>
       <c r="DG1" s="44">
         <f>DF1+1</f>
-        <v>42155</v>
-      </c>
-      <c r="DH1" s="64" t="s">
+        <v>42162</v>
+      </c>
+      <c r="DH1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
+      <c r="DI1" s="44">
+        <f>DG1+3</f>
+        <v>42165</v>
+      </c>
+      <c r="DJ1" s="44">
+        <f>DI1+1</f>
+        <v>42166</v>
+      </c>
+      <c r="DK1" s="44">
+        <f>DJ1+1</f>
+        <v>42167</v>
+      </c>
+      <c r="DL1" s="44">
+        <f>DK1+1</f>
+        <v>42168</v>
+      </c>
+      <c r="DM1" s="44">
+        <f>DL1+1</f>
+        <v>42169</v>
+      </c>
+      <c r="DN1" s="46"/>
+      <c r="DO1" s="44"/>
+      <c r="DP1" s="44"/>
+      <c r="DQ1" s="44"/>
+      <c r="DR1" s="44"/>
+      <c r="DS1" s="44"/>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
       <c r="DV1" s="1"/>
@@ -1668,12 +1724,54 @@
       <c r="BP2" s="55"/>
       <c r="BQ2" s="56"/>
       <c r="BR2" s="46"/>
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="56"/>
       <c r="BX2" s="46"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="56"/>
       <c r="CD2" s="46"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="56"/>
       <c r="CJ2" s="46"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="55"/>
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="56"/>
       <c r="CP2" s="46"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="55"/>
+      <c r="CU2" s="56"/>
       <c r="CV2" s="46"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="55"/>
+      <c r="DA2" s="56"/>
       <c r="DB2" s="46"/>
+      <c r="DC2" s="54"/>
+      <c r="DD2" s="55"/>
+      <c r="DE2" s="55"/>
+      <c r="DF2" s="55"/>
+      <c r="DG2" s="56"/>
+      <c r="DH2" s="46"/>
+      <c r="DI2" s="54"/>
+      <c r="DJ2" s="55"/>
+      <c r="DK2" s="55"/>
+      <c r="DL2" s="55"/>
+      <c r="DM2" s="56"/>
+      <c r="DN2" s="46"/>
     </row>
     <row r="3" spans="1:204">
       <c r="A3" s="58">
@@ -1684,7 +1782,7 @@
       </c>
       <c r="C3" s="26">
         <f>AS1</f>
-        <v>42082</v>
+        <v>42089</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25"/>
@@ -1716,7 +1814,7 @@
       <c r="AP3" s="59"/>
       <c r="AQ3" s="59"/>
       <c r="AR3" s="61"/>
-      <c r="AS3" s="65"/>
+      <c r="AS3" s="64"/>
       <c r="AT3" s="14"/>
       <c r="AX3" s="10"/>
       <c r="AY3" s="4"/>
@@ -1730,6 +1828,8 @@
       <c r="CP3" s="46"/>
       <c r="CV3" s="46"/>
       <c r="DB3" s="46"/>
+      <c r="DH3" s="46"/>
+      <c r="DN3" s="46"/>
     </row>
     <row r="4" spans="1:204">
       <c r="A4" s="58">
@@ -1740,7 +1840,7 @@
       </c>
       <c r="C4" s="26">
         <f>AU1</f>
-        <v>42085</v>
+        <v>42092</v>
       </c>
       <c r="D4" s="14"/>
       <c r="J4" s="14"/>
@@ -1759,7 +1859,7 @@
       <c r="AR4" s="59"/>
       <c r="AS4" s="59"/>
       <c r="AT4" s="14"/>
-      <c r="AU4" s="66"/>
+      <c r="AU4" s="65"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="46"/>
@@ -1772,6 +1872,8 @@
       <c r="CP4" s="46"/>
       <c r="CV4" s="46"/>
       <c r="DB4" s="46"/>
+      <c r="DH4" s="46"/>
+      <c r="DN4" s="46"/>
     </row>
     <row r="5" spans="1:204">
       <c r="A5" s="58">
@@ -1800,6 +1902,8 @@
       <c r="CP5" s="46"/>
       <c r="CV5" s="46"/>
       <c r="DB5" s="46"/>
+      <c r="DH5" s="46"/>
+      <c r="DN5" s="46"/>
     </row>
     <row r="6" spans="1:204">
       <c r="A6" s="58">
@@ -1824,15 +1928,28 @@
       <c r="AX6" s="10"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="46"/>
+      <c r="BA6" s="59"/>
       <c r="BF6" s="46"/>
+      <c r="BG6" s="59"/>
       <c r="BL6" s="46"/>
+      <c r="BM6" s="59"/>
       <c r="BR6" s="46"/>
+      <c r="BS6" s="59"/>
       <c r="BX6" s="46"/>
+      <c r="BY6" s="59"/>
       <c r="CD6" s="46"/>
+      <c r="CE6" s="59"/>
       <c r="CJ6" s="46"/>
+      <c r="CK6" s="59"/>
       <c r="CP6" s="46"/>
+      <c r="CQ6" s="59"/>
       <c r="CV6" s="46"/>
+      <c r="CW6" s="59"/>
       <c r="DB6" s="46"/>
+      <c r="DC6" s="59"/>
+      <c r="DH6" s="46"/>
+      <c r="DI6" s="59"/>
+      <c r="DN6" s="46"/>
     </row>
     <row r="7" spans="1:204">
       <c r="A7" s="58">
@@ -1847,12 +1964,12 @@
       <c r="V7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="68"/>
+      <c r="AI7" s="67"/>
       <c r="AN7" s="14"/>
-      <c r="AO7" s="68"/>
+      <c r="AO7" s="67"/>
       <c r="AP7" s="10"/>
       <c r="AT7" s="14"/>
-      <c r="AU7" s="68"/>
+      <c r="AU7" s="67"/>
       <c r="AV7" s="10"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="4"/>
@@ -1866,6 +1983,8 @@
       <c r="CP7" s="46"/>
       <c r="CV7" s="46"/>
       <c r="DB7" s="46"/>
+      <c r="DH7" s="46"/>
+      <c r="DN7" s="46"/>
     </row>
     <row r="8" spans="1:204">
       <c r="A8" t="s">
@@ -1895,6 +2014,8 @@
       <c r="CP8" s="46"/>
       <c r="CV8" s="46"/>
       <c r="DB8" s="46"/>
+      <c r="DH8" s="46"/>
+      <c r="DN8" s="46"/>
     </row>
     <row r="9" spans="1:204">
       <c r="A9" t="s">
@@ -1923,6 +2044,8 @@
       <c r="CP9" s="46"/>
       <c r="CV9" s="46"/>
       <c r="DB9" s="46"/>
+      <c r="DH9" s="46"/>
+      <c r="DN9" s="46"/>
     </row>
     <row r="10" spans="1:204">
       <c r="A10" s="58">
@@ -1947,6 +2070,11 @@
       <c r="AF10" s="59"/>
       <c r="AG10" s="59"/>
       <c r="AH10" s="14"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="65"/>
       <c r="AN10" s="14"/>
       <c r="AT10" s="14"/>
       <c r="AX10" s="10"/>
@@ -1961,6 +2089,8 @@
       <c r="CP10" s="46"/>
       <c r="CV10" s="46"/>
       <c r="DB10" s="46"/>
+      <c r="DH10" s="46"/>
+      <c r="DN10" s="46"/>
     </row>
     <row r="11" spans="1:204">
       <c r="A11" s="38"/>
@@ -1986,6 +2116,8 @@
       <c r="CP11" s="46"/>
       <c r="CV11" s="46"/>
       <c r="DB11" s="46"/>
+      <c r="DH11" s="46"/>
+      <c r="DN11" s="46"/>
     </row>
     <row r="12" spans="1:204">
       <c r="A12" s="39"/>
@@ -2048,6 +2180,8 @@
       <c r="CP12" s="46"/>
       <c r="CV12" s="46"/>
       <c r="DB12" s="46"/>
+      <c r="DH12" s="46"/>
+      <c r="DN12" s="46"/>
     </row>
     <row r="13" spans="1:204">
       <c r="A13" s="40"/>
@@ -2110,6 +2244,8 @@
       <c r="CP13" s="46"/>
       <c r="CV13" s="46"/>
       <c r="DB13" s="46"/>
+      <c r="DH13" s="46"/>
+      <c r="DN13" s="46"/>
     </row>
     <row r="14" spans="1:204">
       <c r="A14" s="50"/>
@@ -2172,6 +2308,8 @@
       <c r="CP14" s="46"/>
       <c r="CV14" s="46"/>
       <c r="DB14" s="46"/>
+      <c r="DH14" s="46"/>
+      <c r="DN14" s="46"/>
     </row>
     <row r="15" spans="1:204">
       <c r="A15" s="11" t="s">
@@ -2252,12 +2390,54 @@
       <c r="BP15" s="55"/>
       <c r="BQ15" s="56"/>
       <c r="BR15" s="46"/>
+      <c r="BS15" s="54"/>
+      <c r="BT15" s="55"/>
+      <c r="BU15" s="55"/>
+      <c r="BV15" s="55"/>
+      <c r="BW15" s="56"/>
       <c r="BX15" s="46"/>
+      <c r="BY15" s="54"/>
+      <c r="BZ15" s="55"/>
+      <c r="CA15" s="55"/>
+      <c r="CB15" s="55"/>
+      <c r="CC15" s="56"/>
       <c r="CD15" s="46"/>
+      <c r="CE15" s="54"/>
+      <c r="CF15" s="55"/>
+      <c r="CG15" s="55"/>
+      <c r="CH15" s="55"/>
+      <c r="CI15" s="56"/>
       <c r="CJ15" s="46"/>
+      <c r="CK15" s="54"/>
+      <c r="CL15" s="55"/>
+      <c r="CM15" s="55"/>
+      <c r="CN15" s="55"/>
+      <c r="CO15" s="56"/>
       <c r="CP15" s="46"/>
+      <c r="CQ15" s="54"/>
+      <c r="CR15" s="55"/>
+      <c r="CS15" s="55"/>
+      <c r="CT15" s="55"/>
+      <c r="CU15" s="56"/>
       <c r="CV15" s="46"/>
+      <c r="CW15" s="54"/>
+      <c r="CX15" s="55"/>
+      <c r="CY15" s="55"/>
+      <c r="CZ15" s="55"/>
+      <c r="DA15" s="56"/>
       <c r="DB15" s="46"/>
+      <c r="DC15" s="54"/>
+      <c r="DD15" s="55"/>
+      <c r="DE15" s="55"/>
+      <c r="DF15" s="55"/>
+      <c r="DG15" s="56"/>
+      <c r="DH15" s="46"/>
+      <c r="DI15" s="54"/>
+      <c r="DJ15" s="55"/>
+      <c r="DK15" s="55"/>
+      <c r="DL15" s="55"/>
+      <c r="DM15" s="56"/>
+      <c r="DN15" s="46"/>
     </row>
     <row r="16" spans="1:204">
       <c r="A16" s="58">
@@ -2286,8 +2466,10 @@
       <c r="CP16" s="46"/>
       <c r="CV16" s="46"/>
       <c r="DB16" s="46"/>
-    </row>
-    <row r="17" spans="1:106">
+      <c r="DH16" s="46"/>
+      <c r="DN16" s="46"/>
+    </row>
+    <row r="17" spans="1:118">
       <c r="A17" s="58">
         <v>2</v>
       </c>
@@ -2316,8 +2498,10 @@
       <c r="CP17" s="46"/>
       <c r="CV17" s="46"/>
       <c r="DB17" s="46"/>
-    </row>
-    <row r="18" spans="1:106">
+      <c r="DH17" s="46"/>
+      <c r="DN17" s="46"/>
+    </row>
+    <row r="18" spans="1:118">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2344,8 +2528,10 @@
       <c r="CP18" s="46"/>
       <c r="CV18" s="46"/>
       <c r="DB18" s="46"/>
-    </row>
-    <row r="19" spans="1:106">
+      <c r="DH18" s="46"/>
+      <c r="DN18" s="46"/>
+    </row>
+    <row r="19" spans="1:118">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2372,8 +2558,10 @@
       <c r="CP19" s="46"/>
       <c r="CV19" s="46"/>
       <c r="DB19" s="46"/>
-    </row>
-    <row r="20" spans="1:106">
+      <c r="DH19" s="46"/>
+      <c r="DN19" s="46"/>
+    </row>
+    <row r="20" spans="1:118">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2400,8 +2588,10 @@
       <c r="CP20" s="46"/>
       <c r="CV20" s="46"/>
       <c r="DB20" s="46"/>
-    </row>
-    <row r="21" spans="1:106">
+      <c r="DH20" s="46"/>
+      <c r="DN20" s="46"/>
+    </row>
+    <row r="21" spans="1:118">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2618,10 @@
       <c r="CP21" s="46"/>
       <c r="CV21" s="46"/>
       <c r="DB21" s="46"/>
-    </row>
-    <row r="22" spans="1:106">
+      <c r="DH21" s="46"/>
+      <c r="DN21" s="46"/>
+    </row>
+    <row r="22" spans="1:118">
       <c r="A22" s="58">
         <v>3</v>
       </c>
@@ -2454,26 +2646,43 @@
       <c r="AZ22" s="46"/>
       <c r="BA22" s="59"/>
       <c r="BF22" s="46"/>
+      <c r="BG22" s="59"/>
       <c r="BL22" s="46"/>
+      <c r="BM22" s="59"/>
       <c r="BR22" s="46"/>
+      <c r="BS22" s="59"/>
       <c r="BX22" s="46"/>
+      <c r="BY22" s="59"/>
       <c r="CD22" s="46"/>
+      <c r="CE22" s="59"/>
       <c r="CJ22" s="46"/>
+      <c r="CK22" s="59"/>
       <c r="CP22" s="46"/>
+      <c r="CQ22" s="59"/>
       <c r="CV22" s="46"/>
+      <c r="CW22" s="59"/>
       <c r="DB22" s="46"/>
-    </row>
-    <row r="23" spans="1:106">
-      <c r="D23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="4"/>
+      <c r="DC22" s="59"/>
+      <c r="DH22" s="46"/>
+      <c r="DI22" s="59"/>
+      <c r="DN22" s="46"/>
+    </row>
+    <row r="23" spans="1:118">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23"/>
+      <c r="J23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AT23" s="46"/>
       <c r="AZ23" s="46"/>
       <c r="BF23" s="46"/>
       <c r="BL23" s="46"/>
@@ -2484,161 +2693,127 @@
       <c r="CP23" s="46"/>
       <c r="CV23" s="46"/>
       <c r="DB23" s="46"/>
-    </row>
-    <row r="24" spans="1:106">
-      <c r="A24" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="54"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55"/>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="56"/>
+      <c r="DH23" s="46"/>
+      <c r="DN23" s="46"/>
+    </row>
+    <row r="24" spans="1:118">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24"/>
+      <c r="J24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="59"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="59"/>
       <c r="AZ24" s="46"/>
-      <c r="BA24" s="54"/>
-      <c r="BB24" s="55"/>
-      <c r="BC24" s="55"/>
-      <c r="BD24" s="55"/>
-      <c r="BE24" s="56"/>
       <c r="BF24" s="46"/>
-      <c r="BG24" s="54"/>
-      <c r="BH24" s="55"/>
-      <c r="BI24" s="55"/>
-      <c r="BJ24" s="55"/>
-      <c r="BK24" s="56"/>
+      <c r="BG24" s="59"/>
       <c r="BL24" s="46"/>
-      <c r="BM24" s="54"/>
-      <c r="BN24" s="55"/>
-      <c r="BO24" s="55"/>
-      <c r="BP24" s="55"/>
-      <c r="BQ24" s="56"/>
+      <c r="BM24" s="59"/>
       <c r="BR24" s="46"/>
+      <c r="BS24" s="59"/>
       <c r="BX24" s="46"/>
+      <c r="BY24" s="59"/>
       <c r="CD24" s="46"/>
+      <c r="CE24" s="59"/>
       <c r="CJ24" s="46"/>
+      <c r="CK24" s="59"/>
       <c r="CP24" s="46"/>
+      <c r="CQ24" s="59"/>
       <c r="CV24" s="46"/>
+      <c r="CW24" s="59"/>
       <c r="DB24" s="46"/>
-    </row>
-    <row r="25" spans="1:106">
-      <c r="A25" s="58">
-        <v>1</v>
+      <c r="DC24" s="59"/>
+      <c r="DH24" s="46"/>
+      <c r="DI24" s="59"/>
+      <c r="DN24" s="46"/>
+    </row>
+    <row r="25" spans="1:118">
+      <c r="A25" t="s">
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="26">
-        <f>AF1</f>
-        <v>42069</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="V25" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25"/>
+      <c r="J25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="V25" s="46"/>
       <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="66"/>
-      <c r="AH25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="4"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="59"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="59"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="59"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="59"/>
       <c r="AZ25" s="46"/>
+      <c r="BA25" s="59"/>
       <c r="BF25" s="46"/>
+      <c r="BG25" s="59"/>
       <c r="BL25" s="46"/>
+      <c r="BM25" s="59"/>
       <c r="BR25" s="46"/>
+      <c r="BS25" s="59"/>
       <c r="BX25" s="46"/>
+      <c r="BY25" s="59"/>
       <c r="CD25" s="46"/>
+      <c r="CE25" s="59"/>
       <c r="CJ25" s="46"/>
+      <c r="CK25" s="59"/>
       <c r="CP25" s="46"/>
+      <c r="CQ25" s="59"/>
       <c r="CV25" s="46"/>
+      <c r="CW25" s="59"/>
       <c r="DB25" s="46"/>
-    </row>
-    <row r="26" spans="1:106">
-      <c r="A26" s="58">
-        <v>2</v>
+      <c r="DC25" s="59"/>
+      <c r="DH25" s="46"/>
+      <c r="DI25" s="59"/>
+      <c r="DN25" s="46"/>
+    </row>
+    <row r="26" spans="1:118">
+      <c r="A26" t="s">
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="26">
-        <f>AE1</f>
-        <v>42068</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="67"/>
-      <c r="AH26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26"/>
+      <c r="J26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
       <c r="AZ26" s="46"/>
       <c r="BF26" s="46"/>
       <c r="BL26" s="46"/>
@@ -2649,37 +2824,28 @@
       <c r="CP26" s="46"/>
       <c r="CV26" s="46"/>
       <c r="DB26" s="46"/>
-    </row>
-    <row r="27" spans="1:106">
-      <c r="A27" t="s">
-        <v>21</v>
+      <c r="DH26" s="46"/>
+      <c r="DN26" s="46"/>
+    </row>
+    <row r="27" spans="1:118">
+      <c r="A27">
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="26">
-        <f>AD1</f>
-        <v>42067</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="66"/>
-      <c r="AH27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27"/>
+      <c r="J27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AT27" s="46"/>
       <c r="AZ27" s="46"/>
       <c r="BF27" s="46"/>
+      <c r="BG27" s="59"/>
       <c r="BL27" s="46"/>
       <c r="BR27" s="46"/>
       <c r="BX27" s="46"/>
@@ -2688,36 +2854,28 @@
       <c r="CP27" s="46"/>
       <c r="CV27" s="46"/>
       <c r="DB27" s="46"/>
-    </row>
-    <row r="28" spans="1:106">
+      <c r="DH27" s="46"/>
+      <c r="DN27" s="46"/>
+    </row>
+    <row r="28" spans="1:118">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="26">
-        <f>AC1</f>
-        <v>42066</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="66"/>
-      <c r="AH28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28"/>
+      <c r="J28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AT28" s="46"/>
       <c r="AZ28" s="46"/>
       <c r="BF28" s="46"/>
+      <c r="BG28" s="59"/>
       <c r="BL28" s="46"/>
       <c r="BR28" s="46"/>
       <c r="BX28" s="46"/>
@@ -2726,36 +2884,28 @@
       <c r="CP28" s="46"/>
       <c r="CV28" s="46"/>
       <c r="DB28" s="46"/>
-    </row>
-    <row r="29" spans="1:106">
+      <c r="DH28" s="46"/>
+      <c r="DN28" s="46"/>
+    </row>
+    <row r="29" spans="1:118">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="26">
-        <f>AE1</f>
-        <v>42068</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="66"/>
-      <c r="AH29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29"/>
+      <c r="J29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AN29" s="46"/>
+      <c r="AT29" s="46"/>
       <c r="AZ29" s="46"/>
       <c r="BF29" s="46"/>
+      <c r="BG29" s="59"/>
       <c r="BL29" s="46"/>
       <c r="BR29" s="46"/>
       <c r="BX29" s="46"/>
@@ -2764,24 +2914,19 @@
       <c r="CP29" s="46"/>
       <c r="CV29" s="46"/>
       <c r="DB29" s="46"/>
-    </row>
-    <row r="30" spans="1:106">
-      <c r="A30" s="58">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="4"/>
+      <c r="DH29" s="46"/>
+      <c r="DN29" s="46"/>
+    </row>
+    <row r="30" spans="1:118">
+      <c r="D30" s="46"/>
+      <c r="E30"/>
+      <c r="J30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AT30" s="46"/>
       <c r="AZ30" s="46"/>
       <c r="BF30" s="46"/>
       <c r="BL30" s="46"/>
@@ -2792,24 +2937,19 @@
       <c r="CP30" s="46"/>
       <c r="CV30" s="46"/>
       <c r="DB30" s="46"/>
-    </row>
-    <row r="31" spans="1:106">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AX31" s="10"/>
-      <c r="AY31" s="4"/>
+      <c r="DH30" s="46"/>
+      <c r="DN30" s="46"/>
+    </row>
+    <row r="31" spans="1:118">
+      <c r="D31" s="46"/>
+      <c r="E31"/>
+      <c r="J31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AT31" s="46"/>
       <c r="AZ31" s="46"/>
       <c r="BF31" s="46"/>
       <c r="BL31" s="46"/>
@@ -2820,24 +2960,19 @@
       <c r="CP31" s="46"/>
       <c r="CV31" s="46"/>
       <c r="DB31" s="46"/>
-    </row>
-    <row r="32" spans="1:106">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AX32" s="10"/>
-      <c r="AY32" s="4"/>
+      <c r="DH31" s="46"/>
+      <c r="DN31" s="46"/>
+    </row>
+    <row r="32" spans="1:118">
+      <c r="D32" s="46"/>
+      <c r="E32"/>
+      <c r="J32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AT32" s="46"/>
       <c r="AZ32" s="46"/>
       <c r="BF32" s="46"/>
       <c r="BL32" s="46"/>
@@ -2848,33 +2983,19 @@
       <c r="CP32" s="46"/>
       <c r="CV32" s="46"/>
       <c r="DB32" s="46"/>
-    </row>
-    <row r="33" spans="1:106">
-      <c r="A33" s="58">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="26">
-        <f>AG1</f>
-        <v>42070</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="4"/>
+      <c r="DH32" s="46"/>
+      <c r="DN32" s="46"/>
+    </row>
+    <row r="33" spans="1:118">
+      <c r="D33" s="46"/>
+      <c r="E33"/>
+      <c r="J33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AT33" s="46"/>
       <c r="AZ33" s="46"/>
       <c r="BF33" s="46"/>
       <c r="BL33" s="46"/>
@@ -2885,31 +3006,19 @@
       <c r="CP33" s="46"/>
       <c r="CV33" s="46"/>
       <c r="DB33" s="46"/>
-    </row>
-    <row r="34" spans="1:106">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="26">
-        <f>AE1</f>
-        <v>42068</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="66"/>
-      <c r="AH34" s="2"/>
-      <c r="AN34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="4"/>
+      <c r="DH33" s="46"/>
+      <c r="DN33" s="46"/>
+    </row>
+    <row r="34" spans="1:118">
+      <c r="D34" s="46"/>
+      <c r="E34"/>
+      <c r="J34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AN34" s="46"/>
+      <c r="AT34" s="46"/>
       <c r="AZ34" s="46"/>
       <c r="BF34" s="46"/>
       <c r="BL34" s="46"/>
@@ -2920,27 +3029,16 @@
       <c r="CP34" s="46"/>
       <c r="CV34" s="46"/>
       <c r="DB34" s="46"/>
-    </row>
-    <row r="35" spans="1:106">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="26">
-        <f>AE1</f>
-        <v>42068</v>
-      </c>
+      <c r="DH34" s="46"/>
+      <c r="DN34" s="46"/>
+    </row>
+    <row r="35" spans="1:118">
       <c r="D35" s="14"/>
       <c r="J35" s="14"/>
       <c r="P35" s="14"/>
       <c r="V35" s="14"/>
       <c r="AB35" s="14"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="66"/>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="14"/>
       <c r="AN35" s="14"/>
       <c r="AT35" s="14"/>
       <c r="AX35" s="10"/>
@@ -2955,63 +3053,160 @@
       <c r="CP35" s="46"/>
       <c r="CV35" s="46"/>
       <c r="DB35" s="46"/>
-    </row>
-    <row r="36" spans="1:106">
-      <c r="A36" s="58">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
+      <c r="DH35" s="46"/>
+      <c r="DN35" s="46"/>
+    </row>
+    <row r="36" spans="1:118">
+      <c r="A36" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>15</v>
       </c>
       <c r="D36" s="14"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="14"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
       <c r="P36" s="14"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="56"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="56"/>
       <c r="AH36" s="14"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="59"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="56"/>
       <c r="AN36" s="14"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="59"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="55"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="55"/>
+      <c r="AS36" s="56"/>
       <c r="AT36" s="14"/>
-      <c r="AU36" s="59"/>
-      <c r="AV36" s="59"/>
-      <c r="AX36" s="10"/>
-      <c r="AY36" s="4"/>
+      <c r="AU36" s="54"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="56"/>
       <c r="AZ36" s="46"/>
+      <c r="BA36" s="54"/>
+      <c r="BB36" s="55"/>
+      <c r="BC36" s="55"/>
+      <c r="BD36" s="55"/>
+      <c r="BE36" s="56"/>
       <c r="BF36" s="46"/>
+      <c r="BG36" s="54"/>
+      <c r="BH36" s="55"/>
+      <c r="BI36" s="55"/>
+      <c r="BJ36" s="55"/>
+      <c r="BK36" s="56"/>
       <c r="BL36" s="46"/>
+      <c r="BM36" s="54"/>
+      <c r="BN36" s="55"/>
+      <c r="BO36" s="55"/>
+      <c r="BP36" s="55"/>
+      <c r="BQ36" s="56"/>
       <c r="BR36" s="46"/>
+      <c r="BS36" s="54"/>
+      <c r="BT36" s="55"/>
+      <c r="BU36" s="55"/>
+      <c r="BV36" s="55"/>
+      <c r="BW36" s="56"/>
       <c r="BX36" s="46"/>
+      <c r="BY36" s="54"/>
+      <c r="BZ36" s="55"/>
+      <c r="CA36" s="55"/>
+      <c r="CB36" s="55"/>
+      <c r="CC36" s="56"/>
       <c r="CD36" s="46"/>
+      <c r="CE36" s="54"/>
+      <c r="CF36" s="55"/>
+      <c r="CG36" s="55"/>
+      <c r="CH36" s="55"/>
+      <c r="CI36" s="56"/>
       <c r="CJ36" s="46"/>
+      <c r="CK36" s="54"/>
+      <c r="CL36" s="55"/>
+      <c r="CM36" s="55"/>
+      <c r="CN36" s="55"/>
+      <c r="CO36" s="56"/>
       <c r="CP36" s="46"/>
+      <c r="CQ36" s="54"/>
+      <c r="CR36" s="55"/>
+      <c r="CS36" s="55"/>
+      <c r="CT36" s="55"/>
+      <c r="CU36" s="56"/>
       <c r="CV36" s="46"/>
+      <c r="CW36" s="54"/>
+      <c r="CX36" s="55"/>
+      <c r="CY36" s="55"/>
+      <c r="CZ36" s="55"/>
+      <c r="DA36" s="56"/>
       <c r="DB36" s="46"/>
-    </row>
-    <row r="37" spans="1:106">
+      <c r="DC36" s="54"/>
+      <c r="DD36" s="55"/>
+      <c r="DE36" s="55"/>
+      <c r="DF36" s="55"/>
+      <c r="DG36" s="56"/>
+      <c r="DH36" s="46"/>
+      <c r="DI36" s="54"/>
+      <c r="DJ36" s="55"/>
+      <c r="DK36" s="55"/>
+      <c r="DL36" s="55"/>
+      <c r="DM36" s="56"/>
+      <c r="DN36" s="46"/>
+    </row>
+    <row r="37" spans="1:118">
+      <c r="A37" s="58">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="26">
+        <f>AF1</f>
+        <v>42076</v>
+      </c>
       <c r="D37" s="14"/>
       <c r="J37" s="14"/>
       <c r="P37" s="14"/>
       <c r="V37" s="14"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
       <c r="AB37" s="14"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="65"/>
       <c r="AH37" s="14"/>
       <c r="AN37" s="14"/>
       <c r="AT37" s="14"/>
@@ -3027,13 +3222,33 @@
       <c r="CP37" s="46"/>
       <c r="CV37" s="46"/>
       <c r="DB37" s="46"/>
-    </row>
-    <row r="38" spans="1:106">
+      <c r="DH37" s="46"/>
+      <c r="DN37" s="46"/>
+    </row>
+    <row r="38" spans="1:118">
+      <c r="A38" s="58">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="26">
+        <f>AE1</f>
+        <v>42075</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="J38" s="14"/>
       <c r="P38" s="14"/>
       <c r="V38" s="14"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
       <c r="AB38" s="14"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="66"/>
       <c r="AH38" s="14"/>
       <c r="AN38" s="14"/>
       <c r="AT38" s="14"/>
@@ -3049,13 +3264,32 @@
       <c r="CP38" s="46"/>
       <c r="CV38" s="46"/>
       <c r="DB38" s="46"/>
-    </row>
-    <row r="39" spans="1:106">
+      <c r="DH38" s="46"/>
+      <c r="DN38" s="46"/>
+    </row>
+    <row r="39" spans="1:118">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="26">
+        <f>AD1</f>
+        <v>42074</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="J39" s="14"/>
       <c r="P39" s="14"/>
       <c r="V39" s="14"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
       <c r="AB39" s="14"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="65"/>
       <c r="AH39" s="14"/>
       <c r="AN39" s="14"/>
       <c r="AT39" s="14"/>
@@ -3071,28 +3305,538 @@
       <c r="CP39" s="46"/>
       <c r="CV39" s="46"/>
       <c r="DB39" s="46"/>
-    </row>
-    <row r="40" spans="1:106">
-      <c r="D40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AT40" s="15"/>
+      <c r="DH39" s="46"/>
+      <c r="DN39" s="46"/>
+    </row>
+    <row r="40" spans="1:118">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="26">
+        <f>AC1</f>
+        <v>42073</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="65"/>
+      <c r="AH40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AT40" s="14"/>
       <c r="AX40" s="10"/>
       <c r="AY40" s="4"/>
-      <c r="AZ40" s="48"/>
-      <c r="BF40" s="48"/>
-      <c r="BL40" s="48"/>
-      <c r="BR40" s="48"/>
-      <c r="BX40" s="48"/>
-      <c r="CD40" s="48"/>
-      <c r="CJ40" s="48"/>
-      <c r="CP40" s="48"/>
-      <c r="CV40" s="48"/>
-      <c r="DB40" s="48"/>
+      <c r="AZ40" s="46"/>
+      <c r="BF40" s="46"/>
+      <c r="BL40" s="46"/>
+      <c r="BR40" s="46"/>
+      <c r="BX40" s="46"/>
+      <c r="CD40" s="46"/>
+      <c r="CJ40" s="46"/>
+      <c r="CP40" s="46"/>
+      <c r="CV40" s="46"/>
+      <c r="DB40" s="46"/>
+      <c r="DH40" s="46"/>
+      <c r="DN40" s="46"/>
+    </row>
+    <row r="41" spans="1:118">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="26">
+        <f>AE1</f>
+        <v>42075</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="65"/>
+      <c r="AH41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="46"/>
+      <c r="BF41" s="46"/>
+      <c r="BL41" s="46"/>
+      <c r="BR41" s="46"/>
+      <c r="BX41" s="46"/>
+      <c r="CD41" s="46"/>
+      <c r="CJ41" s="46"/>
+      <c r="CP41" s="46"/>
+      <c r="CV41" s="46"/>
+      <c r="DB41" s="46"/>
+      <c r="DH41" s="46"/>
+      <c r="DN41" s="46"/>
+    </row>
+    <row r="42" spans="1:118">
+      <c r="A42" s="58">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="46"/>
+      <c r="BF42" s="46"/>
+      <c r="BL42" s="46"/>
+      <c r="BR42" s="46"/>
+      <c r="BX42" s="46"/>
+      <c r="CD42" s="46"/>
+      <c r="CJ42" s="46"/>
+      <c r="CP42" s="46"/>
+      <c r="CV42" s="46"/>
+      <c r="DB42" s="46"/>
+      <c r="DH42" s="46"/>
+      <c r="DN42" s="46"/>
+    </row>
+    <row r="43" spans="1:118">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="46"/>
+      <c r="BF43" s="46"/>
+      <c r="BL43" s="46"/>
+      <c r="BR43" s="46"/>
+      <c r="BX43" s="46"/>
+      <c r="CD43" s="46"/>
+      <c r="CJ43" s="46"/>
+      <c r="CP43" s="46"/>
+      <c r="CV43" s="46"/>
+      <c r="DB43" s="46"/>
+      <c r="DH43" s="46"/>
+      <c r="DN43" s="46"/>
+    </row>
+    <row r="44" spans="1:118">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="46"/>
+      <c r="BF44" s="46"/>
+      <c r="BL44" s="46"/>
+      <c r="BR44" s="46"/>
+      <c r="BX44" s="46"/>
+      <c r="CD44" s="46"/>
+      <c r="CJ44" s="46"/>
+      <c r="CP44" s="46"/>
+      <c r="CV44" s="46"/>
+      <c r="DB44" s="46"/>
+      <c r="DH44" s="46"/>
+      <c r="DN44" s="46"/>
+    </row>
+    <row r="45" spans="1:118">
+      <c r="A45" s="58">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="26">
+        <f>AG1</f>
+        <v>42077</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="46"/>
+      <c r="BF45" s="46"/>
+      <c r="BL45" s="46"/>
+      <c r="BR45" s="46"/>
+      <c r="BX45" s="46"/>
+      <c r="CD45" s="46"/>
+      <c r="CJ45" s="46"/>
+      <c r="CP45" s="46"/>
+      <c r="CV45" s="46"/>
+      <c r="DB45" s="46"/>
+      <c r="DH45" s="46"/>
+      <c r="DN45" s="46"/>
+    </row>
+    <row r="46" spans="1:118">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="26">
+        <f>AE1</f>
+        <v>42075</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="59"/>
+      <c r="AE46" s="65"/>
+      <c r="AH46" s="2"/>
+      <c r="AN46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="46"/>
+      <c r="BF46" s="46"/>
+      <c r="BL46" s="46"/>
+      <c r="BR46" s="46"/>
+      <c r="BX46" s="46"/>
+      <c r="CD46" s="46"/>
+      <c r="CJ46" s="46"/>
+      <c r="CP46" s="46"/>
+      <c r="CV46" s="46"/>
+      <c r="DB46" s="46"/>
+      <c r="DH46" s="46"/>
+      <c r="DN46" s="46"/>
+    </row>
+    <row r="47" spans="1:118">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="26">
+        <f>AE1</f>
+        <v>42075</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="59"/>
+      <c r="AE47" s="65"/>
+      <c r="AH47" s="2"/>
+      <c r="AN47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="46"/>
+      <c r="BF47" s="46"/>
+      <c r="BL47" s="46"/>
+      <c r="BR47" s="46"/>
+      <c r="BX47" s="46"/>
+      <c r="CD47" s="46"/>
+      <c r="CJ47" s="46"/>
+      <c r="CP47" s="46"/>
+      <c r="CV47" s="46"/>
+      <c r="DB47" s="46"/>
+      <c r="DH47" s="46"/>
+      <c r="DN47" s="46"/>
+    </row>
+    <row r="48" spans="1:118">
+      <c r="A48" s="58">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="59"/>
+      <c r="AF48" s="59"/>
+      <c r="AG48" s="59"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="59"/>
+      <c r="AJ48" s="59"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="59"/>
+      <c r="AM48" s="59"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="59"/>
+      <c r="AP48" s="62"/>
+      <c r="AQ48" s="59"/>
+      <c r="AR48" s="59"/>
+      <c r="AS48" s="59"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="59"/>
+      <c r="AV48" s="59"/>
+      <c r="AW48" s="59"/>
+      <c r="AX48" s="59"/>
+      <c r="AY48" s="59"/>
+      <c r="AZ48" s="46"/>
+      <c r="BA48" s="59"/>
+      <c r="BB48" s="59"/>
+      <c r="BC48" s="59"/>
+      <c r="BD48" s="59"/>
+      <c r="BE48" s="65"/>
+      <c r="BF48" s="46"/>
+      <c r="BL48" s="46"/>
+      <c r="BR48" s="46"/>
+      <c r="BX48" s="46"/>
+      <c r="CD48" s="46"/>
+      <c r="CJ48" s="46"/>
+      <c r="CP48" s="46"/>
+      <c r="CV48" s="46"/>
+      <c r="DB48" s="46"/>
+      <c r="DH48" s="46"/>
+      <c r="DN48" s="46"/>
+    </row>
+    <row r="49" spans="1:118">
+      <c r="A49" s="58">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="46"/>
+      <c r="BF49" s="46"/>
+      <c r="BG49" s="59"/>
+      <c r="BH49" s="59"/>
+      <c r="BI49" s="59"/>
+      <c r="BJ49" s="59"/>
+      <c r="BK49" s="59"/>
+      <c r="BL49" s="46"/>
+      <c r="BM49" s="59"/>
+      <c r="BN49" s="59"/>
+      <c r="BO49" s="59"/>
+      <c r="BP49" s="59"/>
+      <c r="BQ49" s="59"/>
+      <c r="BR49" s="46"/>
+      <c r="BX49" s="46"/>
+      <c r="CD49" s="46"/>
+      <c r="CJ49" s="46"/>
+      <c r="CP49" s="46"/>
+      <c r="CV49" s="46"/>
+      <c r="DB49" s="46"/>
+      <c r="DH49" s="46"/>
+      <c r="DN49" s="46"/>
+    </row>
+    <row r="50" spans="1:118">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="46"/>
+      <c r="BF50" s="46"/>
+      <c r="BH50" s="59"/>
+      <c r="BI50" s="59"/>
+      <c r="BJ50" s="59"/>
+      <c r="BK50" s="59"/>
+      <c r="BL50" s="46"/>
+      <c r="BM50" s="59"/>
+      <c r="BN50" s="59"/>
+      <c r="BR50" s="46"/>
+      <c r="BX50" s="46"/>
+      <c r="CD50" s="46"/>
+      <c r="CJ50" s="46"/>
+      <c r="CP50" s="46"/>
+      <c r="CV50" s="46"/>
+      <c r="DB50" s="46"/>
+      <c r="DH50" s="46"/>
+      <c r="DN50" s="46"/>
+    </row>
+    <row r="51" spans="1:118">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="46"/>
+      <c r="BF51" s="46"/>
+      <c r="BL51" s="46"/>
+      <c r="BO51" s="59"/>
+      <c r="BP51" s="59"/>
+      <c r="BQ51" s="59"/>
+      <c r="BR51" s="46"/>
+      <c r="BX51" s="46"/>
+      <c r="CD51" s="46"/>
+      <c r="CJ51" s="46"/>
+      <c r="CP51" s="46"/>
+      <c r="CV51" s="46"/>
+      <c r="DB51" s="46"/>
+      <c r="DH51" s="46"/>
+      <c r="DN51" s="46"/>
+    </row>
+    <row r="52" spans="1:118">
+      <c r="A52" s="58">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AX52" s="10"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="48"/>
+      <c r="BF52" s="48"/>
+      <c r="BG52" s="59"/>
+      <c r="BH52" s="59"/>
+      <c r="BI52" s="59"/>
+      <c r="BJ52" s="59"/>
+      <c r="BK52" s="59"/>
+      <c r="BL52" s="48"/>
+      <c r="BM52" s="59"/>
+      <c r="BN52" s="59"/>
+      <c r="BO52" s="59"/>
+      <c r="BP52" s="59"/>
+      <c r="BQ52" s="59"/>
+      <c r="BR52" s="48"/>
+      <c r="BS52" s="59"/>
+      <c r="BT52" s="59"/>
+      <c r="BU52" s="59"/>
+      <c r="BV52" s="59"/>
+      <c r="BW52" s="59"/>
+      <c r="BX52" s="48"/>
+      <c r="BY52" s="59"/>
+      <c r="BZ52" s="59"/>
+      <c r="CA52" s="59"/>
+      <c r="CB52" s="59"/>
+      <c r="CC52" s="59"/>
+      <c r="CD52" s="48"/>
+      <c r="CE52" s="59"/>
+      <c r="CF52" s="59"/>
+      <c r="CG52" s="59"/>
+      <c r="CH52" s="59"/>
+      <c r="CI52" s="59"/>
+      <c r="CJ52" s="48"/>
+      <c r="CK52" s="59"/>
+      <c r="CL52" s="59"/>
+      <c r="CM52" s="59"/>
+      <c r="CN52" s="59"/>
+      <c r="CO52" s="59"/>
+      <c r="CP52" s="48"/>
+      <c r="CQ52" s="59"/>
+      <c r="CR52" s="59"/>
+      <c r="CS52" s="59"/>
+      <c r="CT52" s="59"/>
+      <c r="CU52" s="59"/>
+      <c r="CV52" s="48"/>
+      <c r="CW52" s="59"/>
+      <c r="CX52" s="59"/>
+      <c r="CY52" s="59"/>
+      <c r="CZ52" s="59"/>
+      <c r="DA52" s="59"/>
+      <c r="DB52" s="48"/>
+      <c r="DC52" s="59"/>
+      <c r="DD52" s="59"/>
+      <c r="DE52" s="59"/>
+      <c r="DF52" s="59"/>
+      <c r="DG52" s="59"/>
+      <c r="DH52" s="48"/>
+      <c r="DI52" s="59"/>
+      <c r="DJ52" s="59"/>
+      <c r="DK52" s="59"/>
+      <c r="DL52" s="59"/>
+      <c r="DM52" s="59"/>
+      <c r="DN52" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plannig CCO.xlsx
+++ b/Plannig CCO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Week 1</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Complete progamma samenstellen</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Remote desktop</t>
   </si>
 </sst>
 </file>
@@ -1064,11 +1070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1975,6 +1981,11 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="46"/>
       <c r="BF7" s="46"/>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59"/>
       <c r="BL7" s="46"/>
       <c r="BR7" s="46"/>
       <c r="BX7" s="46"/>
@@ -2006,6 +2017,11 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="46"/>
       <c r="BF8" s="46"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
       <c r="BL8" s="46"/>
       <c r="BR8" s="46"/>
       <c r="BX8" s="46"/>
@@ -2036,6 +2052,11 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="46"/>
       <c r="BF9" s="46"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="59"/>
+      <c r="BK9" s="59"/>
       <c r="BL9" s="46"/>
       <c r="BR9" s="46"/>
       <c r="BX9" s="46"/>
@@ -2491,6 +2512,11 @@
       <c r="AZ17" s="46"/>
       <c r="BF17" s="46"/>
       <c r="BL17" s="46"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="59"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="59"/>
       <c r="BR17" s="46"/>
       <c r="BX17" s="46"/>
       <c r="CD17" s="46"/>
@@ -2521,6 +2547,11 @@
       <c r="AZ18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BL18" s="46"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="59"/>
+      <c r="BP18" s="59"/>
+      <c r="BQ18" s="59"/>
       <c r="BR18" s="46"/>
       <c r="BX18" s="46"/>
       <c r="CD18" s="46"/>
@@ -2551,6 +2582,11 @@
       <c r="AZ19" s="46"/>
       <c r="BF19" s="46"/>
       <c r="BL19" s="46"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="59"/>
+      <c r="BP19" s="59"/>
+      <c r="BQ19" s="59"/>
       <c r="BR19" s="46"/>
       <c r="BX19" s="46"/>
       <c r="CD19" s="46"/>
@@ -2581,6 +2617,11 @@
       <c r="AZ20" s="46"/>
       <c r="BF20" s="46"/>
       <c r="BL20" s="46"/>
+      <c r="BM20" s="59"/>
+      <c r="BN20" s="59"/>
+      <c r="BO20" s="59"/>
+      <c r="BP20" s="59"/>
+      <c r="BQ20" s="59"/>
       <c r="BR20" s="46"/>
       <c r="BX20" s="46"/>
       <c r="CD20" s="46"/>
@@ -2611,6 +2652,11 @@
       <c r="AZ21" s="46"/>
       <c r="BF21" s="46"/>
       <c r="BL21" s="46"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="59"/>
       <c r="BR21" s="46"/>
       <c r="BX21" s="46"/>
       <c r="CD21" s="46"/>
@@ -2646,7 +2692,7 @@
       <c r="AZ22" s="46"/>
       <c r="BA22" s="59"/>
       <c r="BF22" s="46"/>
-      <c r="BG22" s="59"/>
+      <c r="BG22" s="63"/>
       <c r="BL22" s="46"/>
       <c r="BM22" s="59"/>
       <c r="BR22" s="46"/>
@@ -2918,6 +2964,12 @@
       <c r="DN29" s="46"/>
     </row>
     <row r="30" spans="1:118">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
       <c r="D30" s="46"/>
       <c r="E30"/>
       <c r="J30" s="46"/>
@@ -2929,6 +2981,7 @@
       <c r="AT30" s="46"/>
       <c r="AZ30" s="46"/>
       <c r="BF30" s="46"/>
+      <c r="BG30" s="59"/>
       <c r="BL30" s="46"/>
       <c r="BR30" s="46"/>
       <c r="BX30" s="46"/>
@@ -3407,8 +3460,16 @@
       <c r="AY42" s="4"/>
       <c r="AZ42" s="46"/>
       <c r="BF42" s="46"/>
+      <c r="BG42" s="59"/>
+      <c r="BH42" s="59"/>
+      <c r="BI42" s="59"/>
+      <c r="BJ42" s="59"/>
+      <c r="BK42" s="59"/>
       <c r="BL42" s="46"/>
       <c r="BR42" s="46"/>
+      <c r="BS42" s="59"/>
+      <c r="BT42" s="59"/>
+      <c r="BU42" s="59"/>
       <c r="BX42" s="46"/>
       <c r="CD42" s="46"/>
       <c r="CJ42" s="46"/>
@@ -3437,8 +3498,16 @@
       <c r="AY43" s="4"/>
       <c r="AZ43" s="46"/>
       <c r="BF43" s="46"/>
+      <c r="BG43" s="59"/>
+      <c r="BH43" s="59"/>
+      <c r="BI43" s="59"/>
+      <c r="BJ43" s="59"/>
+      <c r="BK43" s="59"/>
       <c r="BL43" s="46"/>
       <c r="BR43" s="46"/>
+      <c r="BS43" s="59"/>
+      <c r="BT43" s="59"/>
+      <c r="BU43" s="59"/>
       <c r="BX43" s="46"/>
       <c r="CD43" s="46"/>
       <c r="CJ43" s="46"/>
@@ -3467,8 +3536,16 @@
       <c r="AY44" s="4"/>
       <c r="AZ44" s="46"/>
       <c r="BF44" s="46"/>
+      <c r="BG44" s="59"/>
+      <c r="BH44" s="59"/>
+      <c r="BI44" s="59"/>
+      <c r="BJ44" s="59"/>
+      <c r="BK44" s="59"/>
       <c r="BL44" s="46"/>
       <c r="BR44" s="46"/>
+      <c r="BS44" s="59"/>
+      <c r="BT44" s="59"/>
+      <c r="BU44" s="59"/>
       <c r="BX44" s="46"/>
       <c r="CD44" s="46"/>
       <c r="CJ44" s="46"/>

--- a/Plannig CCO.xlsx
+++ b/Plannig CCO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18720" windowHeight="7665"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18720" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Week 1</t>
   </si>
@@ -132,9 +132,6 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>Use case templates</t>
-  </si>
-  <si>
     <t>ophalen connectie status</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>File Reader</t>
   </si>
   <si>
-    <t>Test applicatie</t>
-  </si>
-  <si>
     <t>Orientatie opdracht</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>Stroken diagram</t>
-  </si>
-  <si>
     <t>Benodigde informatie verzamelen</t>
   </si>
   <si>
@@ -250,13 +241,31 @@
   </si>
   <si>
     <t>Remote desktop</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Database toegang</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test CSV bestanden </t>
+  </si>
+  <si>
+    <t>Klasse diagram</t>
+  </si>
+  <si>
+    <t>Test applicatie (Geschrapt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +305,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -665,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -774,6 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1070,11 +1088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BF35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ34" sqref="AZ34"/>
+      <selection pane="bottomRight" activeCell="BK46" sqref="BK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1133,437 +1151,437 @@
         <v>0</v>
       </c>
       <c r="E1" s="7">
-        <v>42045</v>
+        <v>42046</v>
       </c>
       <c r="F1" s="7">
         <f>E1+1</f>
-        <v>42046</v>
+        <v>42047</v>
       </c>
       <c r="G1" s="7">
         <f>F1+1</f>
-        <v>42047</v>
+        <v>42048</v>
       </c>
       <c r="H1" s="7">
         <f>G1+1</f>
-        <v>42048</v>
+        <v>42049</v>
       </c>
       <c r="I1" s="7">
         <f>H1+1</f>
-        <v>42049</v>
+        <v>42050</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="7">
         <f>I1+3</f>
-        <v>42052</v>
+        <v>42053</v>
       </c>
       <c r="L1" s="7">
         <f>K1+1</f>
-        <v>42053</v>
+        <v>42054</v>
       </c>
       <c r="M1" s="7">
         <f>L1+1</f>
-        <v>42054</v>
+        <v>42055</v>
       </c>
       <c r="N1" s="7">
         <f>M1+1</f>
-        <v>42055</v>
+        <v>42056</v>
       </c>
       <c r="O1" s="7">
         <f>N1+1</f>
-        <v>42056</v>
+        <v>42057</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="7">
         <f>O1+3</f>
-        <v>42059</v>
+        <v>42060</v>
       </c>
       <c r="R1" s="7">
         <f>Q1+1</f>
-        <v>42060</v>
+        <v>42061</v>
       </c>
       <c r="S1" s="7">
         <f>R1+1</f>
-        <v>42061</v>
+        <v>42062</v>
       </c>
       <c r="T1" s="7">
         <f>S1+1</f>
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="U1" s="7">
         <f>T1+1</f>
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="7">
         <f>U1+3</f>
-        <v>42066</v>
+        <v>42067</v>
       </c>
       <c r="X1" s="7">
         <f>W1+1</f>
-        <v>42067</v>
+        <v>42068</v>
       </c>
       <c r="Y1" s="7">
         <f>X1+1</f>
-        <v>42068</v>
+        <v>42069</v>
       </c>
       <c r="Z1" s="7">
         <f>Y1+1</f>
-        <v>42069</v>
+        <v>42070</v>
       </c>
       <c r="AA1" s="7">
         <f>Z1+1</f>
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AC1" s="7">
         <f>AA1+3</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="AD1" s="7">
         <f>AC1+1</f>
-        <v>42074</v>
+        <v>42075</v>
       </c>
       <c r="AE1" s="7">
         <f>AD1+1</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="AF1" s="7">
         <f>AE1+1</f>
-        <v>42076</v>
+        <v>42077</v>
       </c>
       <c r="AG1" s="7">
         <f>AF1+1</f>
-        <v>42077</v>
+        <v>42078</v>
       </c>
       <c r="AH1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AI1" s="7">
         <f>AG1+3</f>
-        <v>42080</v>
+        <v>42081</v>
       </c>
       <c r="AJ1" s="7">
         <f>AI1+1</f>
-        <v>42081</v>
+        <v>42082</v>
       </c>
       <c r="AK1" s="7">
         <f>AJ1+1</f>
-        <v>42082</v>
+        <v>42083</v>
       </c>
       <c r="AL1" s="7">
         <f>AK1+1</f>
-        <v>42083</v>
+        <v>42084</v>
       </c>
       <c r="AM1" s="7">
         <f>AL1+1</f>
-        <v>42084</v>
+        <v>42085</v>
       </c>
       <c r="AN1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="AO1" s="7">
         <f>AM1+1</f>
-        <v>42085</v>
+        <v>42086</v>
       </c>
       <c r="AP1" s="7">
         <f>AO1+1</f>
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="AQ1" s="7">
         <f>AP1+1</f>
-        <v>42087</v>
+        <v>42088</v>
       </c>
       <c r="AR1" s="7">
         <f>AQ1+1</f>
-        <v>42088</v>
+        <v>42089</v>
       </c>
       <c r="AS1" s="7">
         <f>AR1+1</f>
-        <v>42089</v>
+        <v>42090</v>
       </c>
       <c r="AT1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="AU1" s="7">
         <f>AS1+3</f>
-        <v>42092</v>
+        <v>42093</v>
       </c>
       <c r="AV1" s="7">
         <f>AU1+1</f>
-        <v>42093</v>
+        <v>42094</v>
       </c>
       <c r="AW1" s="7">
         <f>AV1+1</f>
-        <v>42094</v>
+        <v>42095</v>
       </c>
       <c r="AX1" s="7">
         <f>AW1+1</f>
-        <v>42095</v>
+        <v>42096</v>
       </c>
       <c r="AY1" s="7">
         <f>AX1+1</f>
-        <v>42096</v>
+        <v>42097</v>
       </c>
       <c r="AZ1" s="45" t="s">
         <v>16</v>
       </c>
       <c r="BA1" s="44">
         <f>AY1+3</f>
-        <v>42099</v>
+        <v>42100</v>
       </c>
       <c r="BB1" s="44">
         <f>BA1+1</f>
-        <v>42100</v>
+        <v>42101</v>
       </c>
       <c r="BC1" s="44">
         <f>BB1+1</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="BD1" s="44">
         <f>BC1+1</f>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="BE1" s="44">
         <f>BD1+1</f>
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="BF1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="BG1" s="51">
         <f>BE1+3</f>
-        <v>42106</v>
+        <v>42107</v>
       </c>
       <c r="BH1" s="52">
         <f>BG1+1</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="BI1" s="52">
         <f>BH1+1</f>
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="BJ1" s="52">
         <f>BI1+1</f>
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="BK1" s="52">
         <f>BJ1+1</f>
-        <v>42110</v>
+        <v>42111</v>
       </c>
       <c r="BL1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="BM1" s="44">
         <f>BK1+3</f>
-        <v>42113</v>
+        <v>42114</v>
       </c>
       <c r="BN1" s="44">
         <f>BM1+1</f>
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="BO1" s="44">
         <f>BN1+1</f>
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="BP1" s="44">
         <f>BO1+1</f>
-        <v>42116</v>
+        <v>42117</v>
       </c>
       <c r="BQ1" s="44">
         <f>BP1+1</f>
-        <v>42117</v>
+        <v>42118</v>
       </c>
       <c r="BR1" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BS1" s="44">
         <f>BQ1+3</f>
-        <v>42120</v>
+        <v>42121</v>
       </c>
       <c r="BT1" s="44">
         <f>BS1+1</f>
-        <v>42121</v>
+        <v>42122</v>
       </c>
       <c r="BU1" s="44">
         <f>BT1+1</f>
-        <v>42122</v>
+        <v>42123</v>
       </c>
       <c r="BV1" s="44">
         <f>BU1+1</f>
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="BW1" s="44">
         <f>BV1+1</f>
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="BX1" s="45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BY1" s="44">
         <f>BW1+3</f>
-        <v>42127</v>
+        <v>42128</v>
       </c>
       <c r="BZ1" s="44">
         <f>BY1+1</f>
-        <v>42128</v>
+        <v>42129</v>
       </c>
       <c r="CA1" s="44">
         <f>BZ1+1</f>
-        <v>42129</v>
+        <v>42130</v>
       </c>
       <c r="CB1" s="44">
         <f>CA1+1</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="CC1" s="44">
         <f>CB1+1</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="CD1" s="45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="CE1" s="44">
         <f>CB1+3</f>
-        <v>42133</v>
+        <v>42134</v>
       </c>
       <c r="CF1" s="44">
         <f>CE1+1</f>
-        <v>42134</v>
+        <v>42135</v>
       </c>
       <c r="CG1" s="44">
         <f>CF1+1</f>
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="CH1" s="44">
         <f>CG1+1</f>
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="CI1" s="44">
         <f>CH1+1</f>
-        <v>42137</v>
+        <v>42138</v>
       </c>
       <c r="CJ1" s="45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="CK1" s="44">
         <f>CH1+3</f>
-        <v>42139</v>
+        <v>42140</v>
       </c>
       <c r="CL1" s="44">
         <f>CK1+1</f>
-        <v>42140</v>
+        <v>42141</v>
       </c>
       <c r="CM1" s="44">
         <f>CL1+1</f>
-        <v>42141</v>
+        <v>42142</v>
       </c>
       <c r="CN1" s="44">
         <f>CM1+1</f>
-        <v>42142</v>
+        <v>42143</v>
       </c>
       <c r="CO1" s="44">
         <f>CN1+1</f>
-        <v>42143</v>
+        <v>42144</v>
       </c>
       <c r="CP1" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CQ1" s="44">
         <f>CO1+1</f>
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="CR1" s="44">
         <f>CQ1+1</f>
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="CS1" s="44">
         <f>CR1+1</f>
-        <v>42146</v>
+        <v>42147</v>
       </c>
       <c r="CT1" s="44">
         <f>CS1+1</f>
-        <v>42147</v>
+        <v>42148</v>
       </c>
       <c r="CU1" s="44">
         <f>CT1+1</f>
-        <v>42148</v>
+        <v>42149</v>
       </c>
       <c r="CV1" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="CW1" s="44">
         <f>CU1+3</f>
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="CX1" s="44">
         <f>CW1+1</f>
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="CY1" s="44">
         <f>CX1+1</f>
-        <v>42153</v>
+        <v>42154</v>
       </c>
       <c r="CZ1" s="44">
         <f>CY1+1</f>
-        <v>42154</v>
+        <v>42155</v>
       </c>
       <c r="DA1" s="44">
         <f>CZ1+1</f>
-        <v>42155</v>
+        <v>42156</v>
       </c>
       <c r="DB1" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="DC1" s="44">
         <f>DA1+3</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="DD1" s="44">
         <f>DC1+1</f>
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="DE1" s="44">
         <f>DD1+1</f>
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="DF1" s="44">
         <f>DE1+1</f>
-        <v>42161</v>
+        <v>42162</v>
       </c>
       <c r="DG1" s="44">
         <f>DF1+1</f>
-        <v>42162</v>
+        <v>42163</v>
       </c>
       <c r="DH1" s="45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="DI1" s="44">
         <f>DG1+3</f>
-        <v>42165</v>
+        <v>42166</v>
       </c>
       <c r="DJ1" s="44">
         <f>DI1+1</f>
-        <v>42166</v>
+        <v>42167</v>
       </c>
       <c r="DK1" s="44">
         <f>DJ1+1</f>
-        <v>42167</v>
+        <v>42168</v>
       </c>
       <c r="DL1" s="44">
         <f>DK1+1</f>
-        <v>42168</v>
+        <v>42169</v>
       </c>
       <c r="DM1" s="44">
         <f>DL1+1</f>
-        <v>42169</v>
+        <v>42170</v>
       </c>
       <c r="DN1" s="46"/>
       <c r="DO1" s="44"/>
@@ -1788,7 +1806,7 @@
       </c>
       <c r="C3" s="26">
         <f>AS1</f>
-        <v>42089</v>
+        <v>42090</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25"/>
@@ -1846,7 +1864,7 @@
       </c>
       <c r="C4" s="26">
         <f>AU1</f>
-        <v>42092</v>
+        <v>42093</v>
       </c>
       <c r="D4" s="14"/>
       <c r="J4" s="14"/>
@@ -1916,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="14"/>
       <c r="J6" s="14"/>
@@ -1936,7 +1954,7 @@
       <c r="AZ6" s="46"/>
       <c r="BA6" s="59"/>
       <c r="BF6" s="46"/>
-      <c r="BG6" s="59"/>
+      <c r="BG6" s="65"/>
       <c r="BL6" s="46"/>
       <c r="BM6" s="59"/>
       <c r="BR6" s="46"/>
@@ -2002,7 +2020,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14"/>
       <c r="J8" s="14"/>
@@ -2035,10 +2053,10 @@
     </row>
     <row r="9" spans="1:204">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D9" s="14"/>
       <c r="J9" s="14"/>
@@ -2073,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="14"/>
       <c r="J10" s="14"/>
@@ -2532,7 +2550,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="14"/>
       <c r="J18" s="14"/>
@@ -2567,7 +2585,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="14"/>
       <c r="J19" s="14"/>
@@ -2602,7 +2620,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="14"/>
       <c r="J20" s="14"/>
@@ -2634,10 +2652,10 @@
     </row>
     <row r="21" spans="1:118">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="14"/>
       <c r="J21" s="14"/>
@@ -2678,21 +2696,21 @@
       <c r="J22" s="14"/>
       <c r="P22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="59"/>
+      <c r="W22" s="65"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="59"/>
+      <c r="AC22" s="65"/>
       <c r="AH22" s="14"/>
-      <c r="AI22" s="59"/>
+      <c r="AI22" s="65"/>
       <c r="AN22" s="14"/>
-      <c r="AO22" s="59"/>
+      <c r="AO22" s="65"/>
       <c r="AT22" s="14"/>
-      <c r="AU22" s="59"/>
+      <c r="AU22" s="65"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="46"/>
-      <c r="BA22" s="59"/>
+      <c r="BA22" s="65"/>
       <c r="BF22" s="46"/>
-      <c r="BG22" s="63"/>
+      <c r="BG22" s="65"/>
       <c r="BL22" s="46"/>
       <c r="BM22" s="59"/>
       <c r="BR22" s="46"/>
@@ -2715,10 +2733,10 @@
     </row>
     <row r="23" spans="1:118">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23"/>
@@ -2731,15 +2749,25 @@
       <c r="AT23" s="46"/>
       <c r="AZ23" s="46"/>
       <c r="BF23" s="46"/>
+      <c r="BG23" s="65"/>
       <c r="BL23" s="46"/>
+      <c r="BM23" s="59"/>
       <c r="BR23" s="46"/>
+      <c r="BS23" s="59"/>
       <c r="BX23" s="46"/>
+      <c r="BY23" s="59"/>
       <c r="CD23" s="46"/>
+      <c r="CE23" s="59"/>
       <c r="CJ23" s="46"/>
+      <c r="CK23" s="59"/>
       <c r="CP23" s="46"/>
+      <c r="CQ23" s="59"/>
       <c r="CV23" s="46"/>
+      <c r="CW23" s="59"/>
       <c r="DB23" s="46"/>
+      <c r="DC23" s="59"/>
       <c r="DH23" s="46"/>
+      <c r="DI23" s="59"/>
       <c r="DN23" s="46"/>
     </row>
     <row r="24" spans="1:118">
@@ -2747,7 +2775,11 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="26">
+        <f>AY1</f>
+        <v>42097</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24"/>
@@ -2767,28 +2799,18 @@
       <c r="AV24" s="59"/>
       <c r="AW24" s="59"/>
       <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
+      <c r="AY24" s="65"/>
       <c r="AZ24" s="46"/>
       <c r="BF24" s="46"/>
-      <c r="BG24" s="59"/>
       <c r="BL24" s="46"/>
-      <c r="BM24" s="59"/>
       <c r="BR24" s="46"/>
-      <c r="BS24" s="59"/>
       <c r="BX24" s="46"/>
-      <c r="BY24" s="59"/>
       <c r="CD24" s="46"/>
-      <c r="CE24" s="59"/>
       <c r="CJ24" s="46"/>
-      <c r="CK24" s="59"/>
       <c r="CP24" s="46"/>
-      <c r="CQ24" s="59"/>
       <c r="CV24" s="46"/>
-      <c r="CW24" s="59"/>
       <c r="DB24" s="46"/>
-      <c r="DC24" s="59"/>
       <c r="DH24" s="46"/>
-      <c r="DI24" s="59"/>
       <c r="DN24" s="46"/>
     </row>
     <row r="25" spans="1:118">
@@ -2796,26 +2818,26 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25"/>
       <c r="J25" s="46"/>
       <c r="P25" s="46"/>
       <c r="V25" s="46"/>
-      <c r="W25" s="59"/>
+      <c r="W25" s="65"/>
       <c r="AB25" s="46"/>
-      <c r="AC25" s="59"/>
+      <c r="AC25" s="65"/>
       <c r="AH25" s="46"/>
-      <c r="AI25" s="59"/>
+      <c r="AI25" s="65"/>
       <c r="AN25" s="46"/>
-      <c r="AO25" s="59"/>
+      <c r="AO25" s="65"/>
       <c r="AT25" s="46"/>
-      <c r="AU25" s="59"/>
+      <c r="AU25" s="65"/>
       <c r="AZ25" s="46"/>
-      <c r="BA25" s="59"/>
+      <c r="BA25" s="65"/>
       <c r="BF25" s="46"/>
-      <c r="BG25" s="59"/>
+      <c r="BG25" s="65"/>
       <c r="BL25" s="46"/>
       <c r="BM25" s="59"/>
       <c r="BR25" s="46"/>
@@ -2841,7 +2863,11 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="26">
+        <f>AY1</f>
+        <v>42097</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26"/>
@@ -2859,7 +2885,7 @@
       <c r="AV26" s="59"/>
       <c r="AW26" s="59"/>
       <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
+      <c r="AY26" s="65"/>
       <c r="AZ26" s="46"/>
       <c r="BF26" s="46"/>
       <c r="BL26" s="46"/>
@@ -2878,7 +2904,11 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C27" s="26">
+        <f>BG1</f>
+        <v>42107</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27"/>
@@ -2891,7 +2921,7 @@
       <c r="AT27" s="46"/>
       <c r="AZ27" s="46"/>
       <c r="BF27" s="46"/>
-      <c r="BG27" s="59"/>
+      <c r="BG27" s="65"/>
       <c r="BL27" s="46"/>
       <c r="BR27" s="46"/>
       <c r="BX27" s="46"/>
@@ -2908,7 +2938,11 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C28" s="26">
+        <f>BG1</f>
+        <v>42107</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28"/>
@@ -2921,7 +2955,7 @@
       <c r="AT28" s="46"/>
       <c r="AZ28" s="46"/>
       <c r="BF28" s="46"/>
-      <c r="BG28" s="59"/>
+      <c r="BG28" s="65"/>
       <c r="BL28" s="46"/>
       <c r="BR28" s="46"/>
       <c r="BX28" s="46"/>
@@ -2935,10 +2969,14 @@
     </row>
     <row r="29" spans="1:118">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C29" s="26">
+        <f>BG1</f>
+        <v>42107</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29"/>
@@ -2951,7 +2989,7 @@
       <c r="AT29" s="46"/>
       <c r="AZ29" s="46"/>
       <c r="BF29" s="46"/>
-      <c r="BG29" s="59"/>
+      <c r="BG29" s="65"/>
       <c r="BL29" s="46"/>
       <c r="BR29" s="46"/>
       <c r="BX29" s="46"/>
@@ -2965,10 +3003,14 @@
     </row>
     <row r="30" spans="1:118">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="26">
+        <f>BG1</f>
+        <v>42107</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30"/>
@@ -2981,7 +3023,7 @@
       <c r="AT30" s="46"/>
       <c r="AZ30" s="46"/>
       <c r="BF30" s="46"/>
-      <c r="BG30" s="59"/>
+      <c r="BG30" s="65"/>
       <c r="BL30" s="46"/>
       <c r="BR30" s="46"/>
       <c r="BX30" s="46"/>
@@ -2994,15 +3036,27 @@
       <c r="DN30" s="46"/>
     </row>
     <row r="31" spans="1:118">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="26">
+        <f>AU1</f>
+        <v>42093</v>
+      </c>
       <c r="D31" s="46"/>
       <c r="E31"/>
       <c r="J31" s="46"/>
       <c r="P31" s="46"/>
       <c r="V31" s="46"/>
       <c r="AB31" s="46"/>
+      <c r="AC31" s="59"/>
       <c r="AH31" s="46"/>
       <c r="AN31" s="46"/>
       <c r="AT31" s="46"/>
+      <c r="AU31" s="65"/>
       <c r="AZ31" s="46"/>
       <c r="BF31" s="46"/>
       <c r="BL31" s="46"/>
@@ -3017,6 +3071,16 @@
       <c r="DN31" s="46"/>
     </row>
     <row r="32" spans="1:118">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="26">
+        <f>AU1</f>
+        <v>42093</v>
+      </c>
       <c r="D32" s="46"/>
       <c r="E32"/>
       <c r="J32" s="46"/>
@@ -3026,6 +3090,7 @@
       <c r="AH32" s="46"/>
       <c r="AN32" s="46"/>
       <c r="AT32" s="46"/>
+      <c r="AU32" s="65"/>
       <c r="AZ32" s="46"/>
       <c r="BF32" s="46"/>
       <c r="BL32" s="46"/>
@@ -3244,7 +3309,7 @@
       </c>
       <c r="C37" s="26">
         <f>AF1</f>
-        <v>42076</v>
+        <v>42077</v>
       </c>
       <c r="D37" s="14"/>
       <c r="J37" s="14"/>
@@ -3287,7 +3352,7 @@
       </c>
       <c r="C38" s="26">
         <f>AE1</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="D38" s="14"/>
       <c r="J38" s="14"/>
@@ -3329,7 +3394,7 @@
       </c>
       <c r="C39" s="26">
         <f>AD1</f>
-        <v>42074</v>
+        <v>42075</v>
       </c>
       <c r="D39" s="14"/>
       <c r="J39" s="14"/>
@@ -3370,7 +3435,7 @@
       </c>
       <c r="C40" s="26">
         <f>AC1</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="D40" s="14"/>
       <c r="J40" s="14"/>
@@ -3406,11 +3471,11 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="26">
         <f>AE1</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="D41" s="14"/>
       <c r="J41" s="14"/>
@@ -3446,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="14"/>
       <c r="J42" s="14"/>
@@ -3481,10 +3546,10 @@
     </row>
     <row r="43" spans="1:118">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
       </c>
       <c r="D43" s="14"/>
       <c r="J43" s="14"/>
@@ -3519,10 +3584,10 @@
     </row>
     <row r="44" spans="1:118">
       <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
       </c>
       <c r="D44" s="14"/>
       <c r="J44" s="14"/>
@@ -3564,7 +3629,7 @@
       </c>
       <c r="C45" s="26">
         <f>AG1</f>
-        <v>42077</v>
+        <v>42078</v>
       </c>
       <c r="D45" s="14"/>
       <c r="J45" s="14"/>
@@ -3603,7 +3668,7 @@
       </c>
       <c r="C46" s="26">
         <f>AE1</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="D46" s="14"/>
       <c r="J46" s="14"/>
@@ -3640,7 +3705,7 @@
       </c>
       <c r="C47" s="26">
         <f>AE1</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="D47" s="14"/>
       <c r="J47" s="14"/>
@@ -3673,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D48" s="14"/>
       <c r="J48" s="14"/>
@@ -3713,7 +3778,7 @@
       <c r="BB48" s="59"/>
       <c r="BC48" s="59"/>
       <c r="BD48" s="59"/>
-      <c r="BE48" s="65"/>
+      <c r="BE48" s="68"/>
       <c r="BF48" s="46"/>
       <c r="BL48" s="46"/>
       <c r="BR48" s="46"/>
@@ -3731,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D49" s="14"/>
       <c r="J49" s="14"/>
@@ -3768,10 +3833,10 @@
     </row>
     <row r="50" spans="1:118">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="14"/>
       <c r="J50" s="14"/>
@@ -3804,10 +3869,10 @@
     </row>
     <row r="51" spans="1:118">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D51" s="14"/>
       <c r="J51" s="14"/>
@@ -3840,7 +3905,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D52" s="15"/>
       <c r="J52" s="15"/>

--- a/Plannig CCO.xlsx
+++ b/Plannig CCO.xlsx
@@ -1089,10 +1089,10 @@
   <dimension ref="A1:GV52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BF35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BK46" sqref="BK46"/>
+      <selection pane="bottomRight" activeCell="BQ13" sqref="BQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2276,6 +2276,7 @@
       <c r="AZ13" s="47"/>
       <c r="BF13" s="46"/>
       <c r="BL13" s="46"/>
+      <c r="BQ13" s="53"/>
       <c r="BR13" s="46"/>
       <c r="BX13" s="46"/>
       <c r="CD13" s="46"/>
